--- a/ESG-generated-data.xlsx
+++ b/ESG-generated-data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="349">
   <si>
     <t>Unique ID</t>
   </si>
@@ -55,958 +55,1012 @@
     <t>Gas_Consumption_By_Structure</t>
   </si>
   <si>
-    <t>VXeoAkvyxzypffNj</t>
-  </si>
-  <si>
-    <t>enLgBbo5oVRxyMZT</t>
-  </si>
-  <si>
-    <t>PEDsg8yWK3TpwKh4</t>
-  </si>
-  <si>
-    <t>BXDKcKzLtb9JCdQR</t>
-  </si>
-  <si>
-    <t>49QNu3DeC7s5BY9o</t>
-  </si>
-  <si>
-    <t>ZdcQirQn9u2JLSC9</t>
-  </si>
-  <si>
-    <t>WGwiMGS6WX5CoD5D</t>
-  </si>
-  <si>
-    <t>UwmJyHes7BFLPg4L</t>
-  </si>
-  <si>
-    <t>J6zCAFyWr4PNgGQ4</t>
-  </si>
-  <si>
-    <t>aMG9n7DYN5oLNFBS</t>
-  </si>
-  <si>
-    <t>RABAFSGjuRqPpQn5</t>
-  </si>
-  <si>
-    <t>ArXGE9sXGfumitgP</t>
-  </si>
-  <si>
-    <t>db5SMN7dD5CpaMJj</t>
-  </si>
-  <si>
-    <t>em7SEBJ3yDz66QMx</t>
-  </si>
-  <si>
-    <t>JkHiEM6rc7Q7x98t</t>
-  </si>
-  <si>
-    <t>djUxJUn7oYWhx3s5</t>
-  </si>
-  <si>
-    <t>NDhA8p8vVVMd69Yq</t>
-  </si>
-  <si>
-    <t>bkX9QrheUSLHYL54</t>
-  </si>
-  <si>
-    <t>ZqwQP64TMHVafyma</t>
-  </si>
-  <si>
-    <t>kAjjYtSJzMrFJ7Ea</t>
-  </si>
-  <si>
-    <t>fqhdNohKtPEsirDv</t>
-  </si>
-  <si>
-    <t>J6EY29BWwjBh52Zq</t>
-  </si>
-  <si>
-    <t>cZSTXdjgbVsDK3jJ</t>
-  </si>
-  <si>
-    <t>UH7nvYjURgwGRN2S</t>
-  </si>
-  <si>
-    <t>is2Q29AAhyEUTDLF</t>
-  </si>
-  <si>
-    <t>8HDJnLD6BYoj3dYG</t>
-  </si>
-  <si>
-    <t>GRp5FijQRwDMAHVs</t>
-  </si>
-  <si>
-    <t>VNApBYQ9EoWznxck</t>
-  </si>
-  <si>
-    <t>PgoZLeXgVHEnuC4W</t>
-  </si>
-  <si>
-    <t>X7YMhh3hK3jirmwZ</t>
-  </si>
-  <si>
-    <t>NSyEro7V8hWsh2AE</t>
-  </si>
-  <si>
-    <t>UyFG2Md2qYyndKfA</t>
-  </si>
-  <si>
-    <t>JNx3xf6jVkEVVaCG</t>
-  </si>
-  <si>
-    <t>gLCunLzoV4qbTMtR</t>
-  </si>
-  <si>
-    <t>APsrtqyMRfeUQFkg</t>
-  </si>
-  <si>
-    <t>AgVQS4mEYffFF4y6</t>
-  </si>
-  <si>
-    <t>hZ5pDYdP3S6wwwRf</t>
-  </si>
-  <si>
-    <t>gFGpHJBPPUUkKGVM</t>
-  </si>
-  <si>
-    <t>A4p8yM8D6BLWYghU</t>
-  </si>
-  <si>
-    <t>YaHvzMzfVraUeGgK</t>
-  </si>
-  <si>
-    <t>SssRPjdWRBtSTaea</t>
-  </si>
-  <si>
-    <t>UCaEEmns6xX84ZF2</t>
-  </si>
-  <si>
-    <t>UWwmMQ7iBw7G4Ydw</t>
-  </si>
-  <si>
-    <t>MvsduKitAcP2EJ3o</t>
-  </si>
-  <si>
-    <t>YWrRk2YWW37zPZU2</t>
-  </si>
-  <si>
-    <t>VJ4qmNy75RZGS6Wx</t>
-  </si>
-  <si>
-    <t>VdCP6AMH8r5w8hJv</t>
-  </si>
-  <si>
-    <t>JiQwUUDphV9zTzuV</t>
-  </si>
-  <si>
-    <t>9tKnpGbhGAV5zoZg</t>
-  </si>
-  <si>
-    <t>ZwRcDL5JTpzHfCTg</t>
-  </si>
-  <si>
-    <t>LmiyyNnKG9Z6KTVm</t>
-  </si>
-  <si>
-    <t>oLjkCfpmzxtwKEH5</t>
-  </si>
-  <si>
-    <t>DT9Zsz2kU5qpafjL</t>
-  </si>
-  <si>
-    <t>8SX6ngPHmcSqYfVu</t>
-  </si>
-  <si>
-    <t>8HB6C8pvyj73Dyxz</t>
-  </si>
-  <si>
-    <t>EmoweusFGbo5sRZ5</t>
-  </si>
-  <si>
-    <t>BszpVR2nkN4HRS6L</t>
-  </si>
-  <si>
-    <t>jWFR3TBS78nW4V5K</t>
-  </si>
-  <si>
-    <t>MRV8GipfCM9BbsNR</t>
-  </si>
-  <si>
-    <t>LmHvtpodkbXgdpHy</t>
-  </si>
-  <si>
-    <t>8GWmacKoMZqAFqwv</t>
-  </si>
-  <si>
-    <t>fQDGJSzCBax7V3w9</t>
-  </si>
-  <si>
-    <t>4admNvx6vZLEqi9C</t>
-  </si>
-  <si>
-    <t>5JH5KnrgjLyP5V8j</t>
-  </si>
-  <si>
-    <t>ExWGfTi33XEAxjrX</t>
-  </si>
-  <si>
-    <t>Uf6mjvfYXiNbUgSr</t>
-  </si>
-  <si>
-    <t>aPqDUkgQ6BebsH4p</t>
-  </si>
-  <si>
-    <t>WPBrRo6UnHXPCvxS</t>
-  </si>
-  <si>
-    <t>9uQJKZttYN5snDg8</t>
-  </si>
-  <si>
-    <t>E2jojYuBZ7UZvMWa</t>
-  </si>
-  <si>
-    <t>XfeZ3XmDrEftFiKf</t>
-  </si>
-  <si>
-    <t>QdikYkQ83T9S7AEm</t>
-  </si>
-  <si>
-    <t>D4mcZvg25QX3R7bv</t>
-  </si>
-  <si>
-    <t>SwxDoWNEkwhNEdmU</t>
-  </si>
-  <si>
-    <t>9426bV7cHs5S6Nx3</t>
-  </si>
-  <si>
-    <t>Ldws5xWxQFcSVB5f</t>
-  </si>
-  <si>
-    <t>VUKdXrAiER8wBACi</t>
-  </si>
-  <si>
-    <t>eSmxDsnFZtB25ENJ</t>
-  </si>
-  <si>
-    <t>mTQWy9RNtpwBycrm</t>
-  </si>
-  <si>
-    <t>h2PXwZRJehUJXXCH</t>
-  </si>
-  <si>
-    <t>besDZEMkgFANSJQk</t>
-  </si>
-  <si>
-    <t>Zgejh3adFvgEMwet</t>
-  </si>
-  <si>
-    <t>JNC6HXk4gAf6kRRX</t>
-  </si>
-  <si>
-    <t>B7hVUqPgMQ9igwCR</t>
-  </si>
-  <si>
-    <t>9RnvUhv7CXzyBJ57</t>
-  </si>
-  <si>
-    <t>cnypb8KjB6KCtkWu</t>
-  </si>
-  <si>
-    <t>MeDJcw37Sd5AQKXg</t>
-  </si>
-  <si>
-    <t>fCTTmwwp6ue2gvcS</t>
-  </si>
-  <si>
-    <t>n7eR2GHsnWUpgZwB</t>
-  </si>
-  <si>
-    <t>AK6DEPJGEkDWKXEq</t>
-  </si>
-  <si>
-    <t>cN52AvhhnqR5fVpj</t>
-  </si>
-  <si>
-    <t>gibi8gV6hMMgmktr</t>
-  </si>
-  <si>
-    <t>ChNC7pJmz9bsov92</t>
-  </si>
-  <si>
-    <t>3HHJzYDiTXhCDpjE</t>
-  </si>
-  <si>
-    <t>hbeUGyqnUpg92Nc5</t>
-  </si>
-  <si>
-    <t>kdFmG6pVuAxFUGYf</t>
-  </si>
-  <si>
-    <t>n4fCn7vCEJrKrKxU</t>
-  </si>
-  <si>
-    <t>TvTeg8VYCj9KoUHT</t>
-  </si>
-  <si>
-    <t>8k4Xvz5gAGLAavPU</t>
-  </si>
-  <si>
-    <t>gFksqgA7pnCesgVo</t>
+    <t>JdGRhaSeCy2jP334</t>
+  </si>
+  <si>
+    <t>iSUz4NyvzhmJcxwb</t>
+  </si>
+  <si>
+    <t>dedFmcMXEAZyKixB</t>
+  </si>
+  <si>
+    <t>8ceHrhqfPFzCbNdE</t>
+  </si>
+  <si>
+    <t>nCrrkAWZnwfdT2W7</t>
+  </si>
+  <si>
+    <t>NwPg3egdL874J8GG</t>
+  </si>
+  <si>
+    <t>BhFEMce2kUoJ4LAN</t>
+  </si>
+  <si>
+    <t>A3aew3669UGhYySB</t>
+  </si>
+  <si>
+    <t>UtQv7ta8Pm3fdh4P</t>
+  </si>
+  <si>
+    <t>56ekhotgjyHzkY92</t>
+  </si>
+  <si>
+    <t>6go6YmgquhTbwNTR</t>
+  </si>
+  <si>
+    <t>o7kUmfzQRg86p92D</t>
+  </si>
+  <si>
+    <t>nmR2ityiU9CrHTkP</t>
+  </si>
+  <si>
+    <t>Vzve2sbbwXUX26Cs</t>
+  </si>
+  <si>
+    <t>5NfBVgixzbatYhQc</t>
+  </si>
+  <si>
+    <t>YAjzAsJhmQYPGh6D</t>
+  </si>
+  <si>
+    <t>SBeVS3WK2fkPC7Hr</t>
+  </si>
+  <si>
+    <t>WbH76LtnRLcnhhJH</t>
+  </si>
+  <si>
+    <t>TCCeXAJZgozXhZzf</t>
+  </si>
+  <si>
+    <t>AxTwYuuXpf4cGapL</t>
+  </si>
+  <si>
+    <t>UFvUvYQuTamWQcgc</t>
+  </si>
+  <si>
+    <t>AibVuPQgRv6Tf2Vw</t>
+  </si>
+  <si>
+    <t>kMsXiRJFxj8Cybqp</t>
+  </si>
+  <si>
+    <t>JQEViLefFHbdRBdQ</t>
+  </si>
+  <si>
+    <t>himBWpFT2qe57ZCN</t>
+  </si>
+  <si>
+    <t>kzRhEb5sZQJGpvM8</t>
+  </si>
+  <si>
+    <t>DRZEv5dTG3rZLqx9</t>
+  </si>
+  <si>
+    <t>CWFqDW9Kd7U2Svrd</t>
+  </si>
+  <si>
+    <t>b5UjBVtWiQFNpD6k</t>
+  </si>
+  <si>
+    <t>RmDqPi93YAbefA9n</t>
+  </si>
+  <si>
+    <t>Pand7AQDdNyt3JRh</t>
+  </si>
+  <si>
+    <t>fbZwYBUGwzH9YPMT</t>
+  </si>
+  <si>
+    <t>SPfjX55kYEzaMLDM</t>
+  </si>
+  <si>
+    <t>3356SGKogoKBNFZU</t>
+  </si>
+  <si>
+    <t>fAeBv36G4t9ndbvo</t>
+  </si>
+  <si>
+    <t>TkjSXiAmvKAHJWtd</t>
+  </si>
+  <si>
+    <t>4cF6vXUQdMd2bmcG</t>
+  </si>
+  <si>
+    <t>HhD9axH6pqZvpt6M</t>
+  </si>
+  <si>
+    <t>NGQNyLDN4taWKLHh</t>
+  </si>
+  <si>
+    <t>mU9VgdVNsyN8ojGz</t>
+  </si>
+  <si>
+    <t>EfQVKRdwhseB2BM8</t>
+  </si>
+  <si>
+    <t>37wD3evtX4PvAUGM</t>
+  </si>
+  <si>
+    <t>Pnntct3E2fY3dKEv</t>
+  </si>
+  <si>
+    <t>QUPh7FBz8A7AKzTo</t>
+  </si>
+  <si>
+    <t>VekaaC4UNG5xKS4Q</t>
+  </si>
+  <si>
+    <t>VJf8zuHvMniJSMjv</t>
+  </si>
+  <si>
+    <t>TzE5mQdf5u2ZUFsj</t>
+  </si>
+  <si>
+    <t>EfrRcDwYXjXJdDa9</t>
+  </si>
+  <si>
+    <t>QPjKfjgnrCbAgsWV</t>
+  </si>
+  <si>
+    <t>Z5iGDMizB8DVohf5</t>
+  </si>
+  <si>
+    <t>ioZdqpQpFnmSVtDr</t>
+  </si>
+  <si>
+    <t>MWjzmakxkukLPQsB</t>
+  </si>
+  <si>
+    <t>DVKGfcfs88qLvUgq</t>
+  </si>
+  <si>
+    <t>fZ3TfYnEx2nQY4LM</t>
+  </si>
+  <si>
+    <t>Qrk4RL6CX2ueJ9GJ</t>
+  </si>
+  <si>
+    <t>hA6uwK2KVAmjN96b</t>
+  </si>
+  <si>
+    <t>JAtjEoGSjfTNQdgF</t>
+  </si>
+  <si>
+    <t>QrLP3nU84bTCusqa</t>
+  </si>
+  <si>
+    <t>F2meKEUW6EVDpCv8</t>
+  </si>
+  <si>
+    <t>GKix9icqfnFhUhC8</t>
+  </si>
+  <si>
+    <t>iL2icG8Fi7LRvHW2</t>
+  </si>
+  <si>
+    <t>V7bCzHnyANaunXWS</t>
+  </si>
+  <si>
+    <t>Z6Fh6MBJuB2Swvco</t>
+  </si>
+  <si>
+    <t>4QPbYRginbnsnNEb</t>
+  </si>
+  <si>
+    <t>BmZvyHVDDuDvGE7Z</t>
+  </si>
+  <si>
+    <t>keC3Rsp7N8P4ALTr</t>
+  </si>
+  <si>
+    <t>6HN8SY3LxPXcXuTr</t>
+  </si>
+  <si>
+    <t>kt8X8AGbAoC8VaLU</t>
+  </si>
+  <si>
+    <t>7LBauJZPZpyUsgAt</t>
+  </si>
+  <si>
+    <t>nrd74DyGTthBHWU4</t>
+  </si>
+  <si>
+    <t>9JCjg7XP5QtPtLj8</t>
+  </si>
+  <si>
+    <t>UBKBW7AeyZZ2NQKc</t>
+  </si>
+  <si>
+    <t>ctDHK4ZK9UpX6psf</t>
+  </si>
+  <si>
+    <t>9vrC2J2KxRedkyUq</t>
+  </si>
+  <si>
+    <t>VL6PdBom9vaGdVga</t>
+  </si>
+  <si>
+    <t>cYgws6ziH7tQZncb</t>
+  </si>
+  <si>
+    <t>eBbWCyENPYPHUxuU</t>
+  </si>
+  <si>
+    <t>WcCnsrojBuuhyieG</t>
+  </si>
+  <si>
+    <t>KRs4fEoX6nPJsGSi</t>
+  </si>
+  <si>
+    <t>nrhHNXgppY7dohBC</t>
+  </si>
+  <si>
+    <t>moe4TnZUYWsknjnS</t>
+  </si>
+  <si>
+    <t>7Nw98xubMnX6CDMi</t>
+  </si>
+  <si>
+    <t>YpyACDozsqffYucv</t>
+  </si>
+  <si>
+    <t>8eNSPynNSFpSxE5X</t>
+  </si>
+  <si>
+    <t>AsuXsBpuGdcTCjej</t>
+  </si>
+  <si>
+    <t>WFCx7M67HfSiBn56</t>
+  </si>
+  <si>
+    <t>gz6eKSnvBoEUuqe7</t>
+  </si>
+  <si>
+    <t>NSSEaDSTLb43jupz</t>
+  </si>
+  <si>
+    <t>ZvvLAdz4uoPQMMqw</t>
+  </si>
+  <si>
+    <t>QthwmwjiCPpdAYwu</t>
+  </si>
+  <si>
+    <t>jCxQX6UMqT6RTL5E</t>
+  </si>
+  <si>
+    <t>axFi2T4WMrvL9YEC</t>
+  </si>
+  <si>
+    <t>ckfE7RB3BuXGopVA</t>
+  </si>
+  <si>
+    <t>DBLnMx883SHsT8dm</t>
+  </si>
+  <si>
+    <t>RgdMkxQye39wL4PB</t>
+  </si>
+  <si>
+    <t>DXpHch4468sBGLgU</t>
+  </si>
+  <si>
+    <t>FW82xyXKVHnuLuhN</t>
+  </si>
+  <si>
+    <t>Z2LerNv9uyMRZpmu</t>
+  </si>
+  <si>
+    <t>bhwga6HhXSWNL8cE</t>
+  </si>
+  <si>
+    <t>kJdkWvfegqGNNPzt</t>
+  </si>
+  <si>
+    <t>South East</t>
   </si>
   <si>
     <t>London</t>
   </si>
   <si>
+    <t>Eastern</t>
+  </si>
+  <si>
+    <t>North East</t>
+  </si>
+  <si>
+    <t>Wales</t>
+  </si>
+  <si>
     <t xml:space="preserve">South West </t>
   </si>
   <si>
+    <t>East Midlands</t>
+  </si>
+  <si>
     <t>West Midlands</t>
   </si>
   <si>
-    <t>Eastern</t>
+    <t>Yorkshire and the Humber</t>
   </si>
   <si>
     <t>North West</t>
   </si>
   <si>
-    <t>South East</t>
-  </si>
-  <si>
-    <t>Yorkshire and the Humber</t>
-  </si>
-  <si>
-    <t>East Midlands</t>
-  </si>
-  <si>
-    <t>North East</t>
-  </si>
-  <si>
-    <t>Wales</t>
-  </si>
-  <si>
-    <t>Lewisham</t>
+    <t>Ashford</t>
+  </si>
+  <si>
+    <t>Wandsworth</t>
+  </si>
+  <si>
+    <t>Babergh</t>
+  </si>
+  <si>
+    <t>Islington</t>
+  </si>
+  <si>
+    <t>Stockton-on-Tees</t>
+  </si>
+  <si>
+    <t>Ceredigion</t>
+  </si>
+  <si>
+    <t>Cornwall</t>
+  </si>
+  <si>
+    <t>Darlington</t>
+  </si>
+  <si>
+    <t>Hillingdon</t>
+  </si>
+  <si>
+    <t>Lambeth</t>
+  </si>
+  <si>
+    <t>Ashfield</t>
+  </si>
+  <si>
+    <t>Mid Sussex</t>
+  </si>
+  <si>
+    <t>Richmond upon Thames</t>
+  </si>
+  <si>
+    <t>Lichfield</t>
+  </si>
+  <si>
+    <t>Selby</t>
+  </si>
+  <si>
+    <t>City of London</t>
+  </si>
+  <si>
+    <t>Stafford</t>
+  </si>
+  <si>
+    <t>Rutland</t>
+  </si>
+  <si>
+    <t>Central Bedfordshire</t>
+  </si>
+  <si>
+    <t>Redditch</t>
+  </si>
+  <si>
+    <t>Hastings</t>
+  </si>
+  <si>
+    <t>Crawley</t>
+  </si>
+  <si>
+    <t>Wakefield</t>
+  </si>
+  <si>
+    <t>Herefordshire, County of</t>
+  </si>
+  <si>
+    <t>South Hams</t>
+  </si>
+  <si>
+    <t>Newcastle upon Tyne</t>
+  </si>
+  <si>
+    <t>Portsmouth</t>
+  </si>
+  <si>
+    <t>Torridge</t>
+  </si>
+  <si>
+    <t>Welwyn Hatfield</t>
+  </si>
+  <si>
+    <t>Mid Suffolk</t>
+  </si>
+  <si>
+    <t>Leeds</t>
+  </si>
+  <si>
+    <t>Gwynedd</t>
+  </si>
+  <si>
+    <t>Kensington and Chelsea</t>
+  </si>
+  <si>
+    <t>Plymouth</t>
+  </si>
+  <si>
+    <t>Ryedale</t>
+  </si>
+  <si>
+    <t>South Gloucestershire</t>
+  </si>
+  <si>
+    <t>East Suffolk</t>
+  </si>
+  <si>
+    <t>Wokingham</t>
+  </si>
+  <si>
+    <t>Bolton</t>
+  </si>
+  <si>
+    <t>Carmarthenshire</t>
+  </si>
+  <si>
+    <t>Mole Valley</t>
+  </si>
+  <si>
+    <t>Neath Port Talbot</t>
+  </si>
+  <si>
+    <t>West Berkshire</t>
+  </si>
+  <si>
+    <t>Blaenau Gwent</t>
+  </si>
+  <si>
+    <t>Boston</t>
+  </si>
+  <si>
+    <t>Shropshire</t>
   </si>
   <si>
     <t>Sutton</t>
   </si>
   <si>
-    <t>North Somerset</t>
-  </si>
-  <si>
-    <t>Wolverhampton</t>
-  </si>
-  <si>
-    <t>Camden</t>
+    <t>Derbyshire Dales</t>
+  </si>
+  <si>
+    <t>Reigate and Banstead</t>
+  </si>
+  <si>
+    <t>Middlesbrough</t>
+  </si>
+  <si>
+    <t>Enfield</t>
+  </si>
+  <si>
+    <t>Kingston upon Thames</t>
+  </si>
+  <si>
+    <t>Warrington</t>
+  </si>
+  <si>
+    <t>Richmondshire</t>
+  </si>
+  <si>
+    <t>Woking</t>
+  </si>
+  <si>
+    <t>Blackburn with Darwen</t>
+  </si>
+  <si>
+    <t>Rhondda Cynon Taf</t>
+  </si>
+  <si>
+    <t>Broxbourne</t>
+  </si>
+  <si>
+    <t>North Tyneside</t>
+  </si>
+  <si>
+    <t>Breckland</t>
+  </si>
+  <si>
+    <t>Hounslow</t>
+  </si>
+  <si>
+    <t>Northampton</t>
+  </si>
+  <si>
+    <t>Slough</t>
+  </si>
+  <si>
+    <t>Burnley</t>
+  </si>
+  <si>
+    <t>Stratford-on-Avon</t>
+  </si>
+  <si>
+    <t>Dartford</t>
+  </si>
+  <si>
+    <t>Wigan</t>
   </si>
   <si>
     <t>Bromsgrove</t>
   </si>
   <si>
-    <t>West Suffolk</t>
-  </si>
-  <si>
-    <t>Wyre Forest</t>
-  </si>
-  <si>
-    <t>Lancaster</t>
-  </si>
-  <si>
-    <t>Stevenage</t>
-  </si>
-  <si>
-    <t>Hillingdon</t>
-  </si>
-  <si>
-    <t>Birmingham</t>
-  </si>
-  <si>
-    <t>Trafford</t>
-  </si>
-  <si>
-    <t>Forest of Dean</t>
-  </si>
-  <si>
-    <t>East Staffordshire</t>
-  </si>
-  <si>
-    <t>Plymouth</t>
-  </si>
-  <si>
-    <t>Torridge</t>
+    <t>Allerdale</t>
+  </si>
+  <si>
+    <t>Powys</t>
+  </si>
+  <si>
+    <t>Bristol, City of</t>
+  </si>
+  <si>
+    <t>Daventry</t>
+  </si>
+  <si>
+    <t>Gosport</t>
+  </si>
+  <si>
+    <t>Rother</t>
+  </si>
+  <si>
+    <t>Horsham</t>
+  </si>
+  <si>
+    <t>Pendle</t>
+  </si>
+  <si>
+    <t>Havant</t>
+  </si>
+  <si>
+    <t>Isle of Anglesey</t>
+  </si>
+  <si>
+    <t>Sandwell</t>
   </si>
   <si>
     <t>Canterbury</t>
   </si>
   <si>
-    <t>Dorset</t>
-  </si>
-  <si>
-    <t>Cotswold</t>
-  </si>
-  <si>
-    <t>Hambleton</t>
-  </si>
-  <si>
-    <t>Newham</t>
-  </si>
-  <si>
-    <t>Fylde</t>
-  </si>
-  <si>
-    <t>Rochford</t>
-  </si>
-  <si>
-    <t>Sheffield</t>
-  </si>
-  <si>
-    <t>Waverley</t>
-  </si>
-  <si>
-    <t>Oadby and Wigston</t>
-  </si>
-  <si>
-    <t>Reigate and Banstead</t>
-  </si>
-  <si>
-    <t>Allerdale</t>
-  </si>
-  <si>
-    <t>Harrow</t>
-  </si>
-  <si>
-    <t>Ealing</t>
-  </si>
-  <si>
-    <t>Vale of White Horse</t>
-  </si>
-  <si>
-    <t>Gateshead</t>
-  </si>
-  <si>
-    <t>County Durham</t>
-  </si>
-  <si>
-    <t>Bromley</t>
-  </si>
-  <si>
-    <t>Merthyr Tydfil</t>
-  </si>
-  <si>
-    <t>Daventry</t>
-  </si>
-  <si>
-    <t>Redbridge</t>
-  </si>
-  <si>
-    <t>South Ribble</t>
-  </si>
-  <si>
-    <t>Telford and Wrekin</t>
-  </si>
-  <si>
-    <t>Monmouthshire</t>
-  </si>
-  <si>
-    <t>Barrow-in-Furness</t>
-  </si>
-  <si>
-    <t>Windsor and Maidenhead</t>
-  </si>
-  <si>
-    <t>Surrey Heath</t>
-  </si>
-  <si>
-    <t>Redcar and Cleveland</t>
-  </si>
-  <si>
-    <t>Mendip</t>
-  </si>
-  <si>
-    <t>Kensington and Chelsea</t>
-  </si>
-  <si>
-    <t>Rutland</t>
-  </si>
-  <si>
-    <t>Bournemouth, Christchurch and Poole</t>
-  </si>
-  <si>
-    <t>Halton</t>
-  </si>
-  <si>
-    <t>Hertsmere</t>
-  </si>
-  <si>
-    <t>New Forest</t>
-  </si>
-  <si>
-    <t>Sedgemoor</t>
-  </si>
-  <si>
-    <t>Stroud</t>
-  </si>
-  <si>
-    <t>Rushmoor</t>
-  </si>
-  <si>
-    <t>Cheshire West and Chester</t>
-  </si>
-  <si>
-    <t>Tandridge</t>
-  </si>
-  <si>
-    <t>Tendring</t>
-  </si>
-  <si>
-    <t>Bradford</t>
-  </si>
-  <si>
-    <t>Northampton</t>
-  </si>
-  <si>
-    <t>South Tyneside</t>
-  </si>
-  <si>
-    <t>Cheltenham</t>
-  </si>
-  <si>
-    <t>Wychavon</t>
-  </si>
-  <si>
-    <t>South Derbyshire</t>
-  </si>
-  <si>
-    <t>Rushcliffe</t>
-  </si>
-  <si>
-    <t>South Hams</t>
-  </si>
-  <si>
-    <t>Calderdale</t>
-  </si>
-  <si>
-    <t>Staffordshire Moorlands</t>
-  </si>
-  <si>
-    <t>Wandsworth</t>
-  </si>
-  <si>
-    <t>Worcester</t>
-  </si>
-  <si>
-    <t>Herefordshire, County of</t>
-  </si>
-  <si>
-    <t>Southampton</t>
-  </si>
-  <si>
-    <t>Merton</t>
-  </si>
-  <si>
-    <t>Shropshire</t>
-  </si>
-  <si>
-    <t>Worthing</t>
-  </si>
-  <si>
-    <t>North East Derbyshire</t>
-  </si>
-  <si>
-    <t>Babergh</t>
-  </si>
-  <si>
-    <t>Eden</t>
-  </si>
-  <si>
-    <t>South Gloucestershire</t>
-  </si>
-  <si>
-    <t>E09000023</t>
+    <t>Copeland</t>
+  </si>
+  <si>
+    <t>Craven</t>
+  </si>
+  <si>
+    <t>Westminster</t>
+  </si>
+  <si>
+    <t>North Lincolnshire</t>
+  </si>
+  <si>
+    <t>Wealden</t>
+  </si>
+  <si>
+    <t>North Hertfordshire</t>
+  </si>
+  <si>
+    <t>Northumberland</t>
+  </si>
+  <si>
+    <t>E07000105</t>
+  </si>
+  <si>
+    <t>E09000032</t>
+  </si>
+  <si>
+    <t>E07000200</t>
+  </si>
+  <si>
+    <t>E09000019</t>
+  </si>
+  <si>
+    <t>E06000004</t>
+  </si>
+  <si>
+    <t>W06000008</t>
+  </si>
+  <si>
+    <t>E06000052</t>
+  </si>
+  <si>
+    <t>E06000005</t>
+  </si>
+  <si>
+    <t>E09000017</t>
+  </si>
+  <si>
+    <t>E09000022</t>
+  </si>
+  <si>
+    <t>E07000170</t>
+  </si>
+  <si>
+    <t>E07000228</t>
+  </si>
+  <si>
+    <t>E09000027</t>
+  </si>
+  <si>
+    <t>E07000194</t>
+  </si>
+  <si>
+    <t>E07000169</t>
+  </si>
+  <si>
+    <t>E09000001</t>
+  </si>
+  <si>
+    <t>E07000197</t>
+  </si>
+  <si>
+    <t>E06000017</t>
+  </si>
+  <si>
+    <t>E06000056</t>
+  </si>
+  <si>
+    <t>E07000236</t>
+  </si>
+  <si>
+    <t>E07000062</t>
+  </si>
+  <si>
+    <t>E07000226</t>
+  </si>
+  <si>
+    <t>E08000036</t>
+  </si>
+  <si>
+    <t>E06000019</t>
+  </si>
+  <si>
+    <t>E07000044</t>
+  </si>
+  <si>
+    <t>E08000021</t>
+  </si>
+  <si>
+    <t>E06000044</t>
+  </si>
+  <si>
+    <t>E07000046</t>
+  </si>
+  <si>
+    <t>E07000241</t>
+  </si>
+  <si>
+    <t>E07000203</t>
+  </si>
+  <si>
+    <t>E08000035</t>
+  </si>
+  <si>
+    <t>W06000002</t>
+  </si>
+  <si>
+    <t>E09000020</t>
+  </si>
+  <si>
+    <t>E06000026</t>
+  </si>
+  <si>
+    <t>E07000167</t>
+  </si>
+  <si>
+    <t>E06000025</t>
+  </si>
+  <si>
+    <t>E07000205</t>
+  </si>
+  <si>
+    <t>E06000041</t>
+  </si>
+  <si>
+    <t>E08000001</t>
+  </si>
+  <si>
+    <t>W06000010</t>
+  </si>
+  <si>
+    <t>E07000210</t>
+  </si>
+  <si>
+    <t>W06000012</t>
+  </si>
+  <si>
+    <t>E06000037</t>
+  </si>
+  <si>
+    <t>W06000019</t>
+  </si>
+  <si>
+    <t>E07000136</t>
+  </si>
+  <si>
+    <t>E06000051</t>
   </si>
   <si>
     <t>E09000029</t>
   </si>
   <si>
-    <t>E06000024</t>
-  </si>
-  <si>
-    <t>E08000031</t>
-  </si>
-  <si>
-    <t>E09000007</t>
+    <t>E07000035</t>
+  </si>
+  <si>
+    <t>E07000211</t>
+  </si>
+  <si>
+    <t>E06000002</t>
+  </si>
+  <si>
+    <t>E09000010</t>
+  </si>
+  <si>
+    <t>E09000021</t>
+  </si>
+  <si>
+    <t>E06000007</t>
+  </si>
+  <si>
+    <t>E07000166</t>
+  </si>
+  <si>
+    <t>E07000217</t>
+  </si>
+  <si>
+    <t>E06000008</t>
+  </si>
+  <si>
+    <t>W06000016</t>
+  </si>
+  <si>
+    <t>E07000095</t>
+  </si>
+  <si>
+    <t>E08000022</t>
+  </si>
+  <si>
+    <t>E07000143</t>
+  </si>
+  <si>
+    <t>E09000018</t>
+  </si>
+  <si>
+    <t>E07000154</t>
+  </si>
+  <si>
+    <t>E06000039</t>
+  </si>
+  <si>
+    <t>E07000117</t>
+  </si>
+  <si>
+    <t>E07000221</t>
+  </si>
+  <si>
+    <t>E07000107</t>
+  </si>
+  <si>
+    <t>E08000010</t>
   </si>
   <si>
     <t>E07000234</t>
   </si>
   <si>
-    <t>E07000202</t>
-  </si>
-  <si>
-    <t>E07000239</t>
-  </si>
-  <si>
-    <t>E07000121</t>
-  </si>
-  <si>
-    <t>E07000243</t>
-  </si>
-  <si>
-    <t>E09000017</t>
-  </si>
-  <si>
-    <t>E08000025</t>
-  </si>
-  <si>
-    <t>E08000009</t>
-  </si>
-  <si>
-    <t>E07000080</t>
-  </si>
-  <si>
-    <t>E07000193</t>
-  </si>
-  <si>
-    <t>E06000026</t>
-  </si>
-  <si>
-    <t>E07000046</t>
+    <t>E07000026</t>
+  </si>
+  <si>
+    <t>W06000023</t>
+  </si>
+  <si>
+    <t>E06000023</t>
+  </si>
+  <si>
+    <t>E07000151</t>
+  </si>
+  <si>
+    <t>E07000088</t>
+  </si>
+  <si>
+    <t>E07000064</t>
+  </si>
+  <si>
+    <t>E07000227</t>
+  </si>
+  <si>
+    <t>E07000122</t>
+  </si>
+  <si>
+    <t>E07000090</t>
+  </si>
+  <si>
+    <t>W06000001</t>
+  </si>
+  <si>
+    <t>E08000028</t>
   </si>
   <si>
     <t>E07000106</t>
   </si>
   <si>
-    <t>E10000009</t>
-  </si>
-  <si>
-    <t>E07000079</t>
-  </si>
-  <si>
-    <t>E07000164</t>
-  </si>
-  <si>
-    <t>E09000025</t>
-  </si>
-  <si>
-    <t>E07000119</t>
-  </si>
-  <si>
-    <t>E07000075</t>
-  </si>
-  <si>
-    <t>E08000019</t>
-  </si>
-  <si>
-    <t>E07000216</t>
-  </si>
-  <si>
-    <t>E07000135</t>
-  </si>
-  <si>
-    <t>E07000211</t>
-  </si>
-  <si>
-    <t>E07000026</t>
-  </si>
-  <si>
-    <t>E09000015</t>
-  </si>
-  <si>
-    <t>E09000009</t>
-  </si>
-  <si>
-    <t>E07000180</t>
-  </si>
-  <si>
-    <t>E08000037</t>
-  </si>
-  <si>
-    <t>E06000047</t>
-  </si>
-  <si>
-    <t>E09000006</t>
-  </si>
-  <si>
-    <t>W06000024</t>
-  </si>
-  <si>
-    <t>E07000151</t>
-  </si>
-  <si>
-    <t>E09000026</t>
-  </si>
-  <si>
-    <t>E07000126</t>
-  </si>
-  <si>
-    <t>E06000020</t>
-  </si>
-  <si>
-    <t>W06000021</t>
-  </si>
-  <si>
-    <t>E07000027</t>
-  </si>
-  <si>
-    <t>E06000040</t>
-  </si>
-  <si>
-    <t>E07000214</t>
-  </si>
-  <si>
-    <t>E06000003</t>
-  </si>
-  <si>
-    <t>E07000187</t>
-  </si>
-  <si>
-    <t>E09000020</t>
-  </si>
-  <si>
-    <t>E06000017</t>
-  </si>
-  <si>
-    <t>E06000029</t>
-  </si>
-  <si>
-    <t>E06000006</t>
-  </si>
-  <si>
-    <t>E07000098</t>
-  </si>
-  <si>
-    <t>E07000091</t>
-  </si>
-  <si>
-    <t>E07000188</t>
-  </si>
-  <si>
-    <t>E07000082</t>
-  </si>
-  <si>
-    <t>E07000092</t>
-  </si>
-  <si>
-    <t>E06000050</t>
-  </si>
-  <si>
-    <t>E07000215</t>
-  </si>
-  <si>
-    <t>E07000076</t>
-  </si>
-  <si>
-    <t>E08000032</t>
-  </si>
-  <si>
-    <t>E07000154</t>
-  </si>
-  <si>
-    <t>E08000023</t>
-  </si>
-  <si>
-    <t>E07000078</t>
-  </si>
-  <si>
-    <t>E07000238</t>
-  </si>
-  <si>
-    <t>E07000039</t>
-  </si>
-  <si>
-    <t>E07000176</t>
-  </si>
-  <si>
-    <t>E07000044</t>
-  </si>
-  <si>
-    <t>E08000033</t>
-  </si>
-  <si>
-    <t>E07000198</t>
-  </si>
-  <si>
-    <t>E09000032</t>
-  </si>
-  <si>
-    <t>E07000237</t>
-  </si>
-  <si>
-    <t>E06000019</t>
-  </si>
-  <si>
-    <t>E06000045</t>
-  </si>
-  <si>
-    <t>E09000024</t>
-  </si>
-  <si>
-    <t>E06000051</t>
-  </si>
-  <si>
-    <t>E07000229</t>
-  </si>
-  <si>
-    <t>E07000038</t>
-  </si>
-  <si>
-    <t>E07000200</t>
-  </si>
-  <si>
-    <t>E07000030</t>
-  </si>
-  <si>
-    <t>E06000025</t>
+    <t>E07000029</t>
+  </si>
+  <si>
+    <t>E07000163</t>
+  </si>
+  <si>
+    <t>E09000033</t>
+  </si>
+  <si>
+    <t>E06000013</t>
+  </si>
+  <si>
+    <t>E07000065</t>
+  </si>
+  <si>
+    <t>E07000099</t>
+  </si>
+  <si>
+    <t>E06000057</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>M</t>
   </si>
   <si>
     <t>C</t>
   </si>
   <si>
+    <t>G</t>
+  </si>
+  <si>
     <t>F</t>
   </si>
   <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
     <t>A</t>
   </si>
   <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
     <t>H</t>
   </si>
   <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>J</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
     <t>Q</t>
   </si>
   <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>R</t>
+    <t>E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">69-75 </t>
   </si>
   <si>
     <t xml:space="preserve">05-39 </t>
   </si>
   <si>
+    <t xml:space="preserve">47 </t>
+  </si>
+  <si>
     <t xml:space="preserve">41-43 </t>
   </si>
   <si>
+    <t xml:space="preserve">90-99 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">77-82 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">55-56 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">85 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">58-63 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">64-66 </t>
+  </si>
+  <si>
     <t xml:space="preserve">01-03 </t>
   </si>
   <si>
-    <t xml:space="preserve">47 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">69-75 </t>
-  </si>
-  <si>
     <t xml:space="preserve">45 </t>
   </si>
   <si>
     <t xml:space="preserve">49-53 </t>
   </si>
   <si>
-    <t xml:space="preserve">55-56 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">58-63 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">64-66 </t>
+    <t xml:space="preserve">46 </t>
   </si>
   <si>
     <t xml:space="preserve">86-88 </t>
   </si>
   <si>
-    <t xml:space="preserve">68 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">77-82 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">90-99 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">85 </t>
+    <t xml:space="preserve"> Property</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Professional, scientific &amp; technical</t>
   </si>
   <si>
     <t xml:space="preserve"> Production</t>
   </si>
   <si>
+    <t xml:space="preserve"> Retail</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Construction</t>
   </si>
   <si>
+    <t xml:space="preserve"> Arts, entertainment, recreation &amp; other</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Business administration &amp; support services</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Accommodation &amp; food services</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Education</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Information &amp; communication</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Finance &amp; insurance</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Agriculture, forestry &amp; fishing</t>
   </si>
   <si>
-    <t xml:space="preserve"> Retail</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Professional, scientific &amp; technical</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Motor trades</t>
   </si>
   <si>
     <t xml:space="preserve"> Transport &amp; Storage (inc. postal)</t>
   </si>
   <si>
-    <t xml:space="preserve"> Accommodation &amp; food services</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Information &amp; communication</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Finance &amp; insurance</t>
+    <t xml:space="preserve"> Wholesale</t>
   </si>
   <si>
     <t xml:space="preserve"> Health</t>
   </si>
   <si>
-    <t xml:space="preserve"> Property</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Business administration &amp; support services</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Arts, entertainment, recreation &amp; other</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Education</t>
+    <t>Warehouse</t>
+  </si>
+  <si>
+    <t>Office</t>
   </si>
   <si>
     <t>Shop</t>
   </si>
   <si>
+    <t>Factory</t>
+  </si>
+  <si>
     <t>Other</t>
-  </si>
-  <si>
-    <t>Office</t>
-  </si>
-  <si>
-    <t>Factory</t>
-  </si>
-  <si>
-    <t>Warehouse</t>
   </si>
 </sst>
 </file>
@@ -1425,34 +1479,34 @@
         <v>123</v>
       </c>
       <c r="E2" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="F2" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="G2" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="H2" t="s">
-        <v>311</v>
+        <v>328</v>
       </c>
       <c r="I2" t="s">
-        <v>326</v>
+        <v>344</v>
       </c>
       <c r="J2">
-        <v>46.91826603336573</v>
+        <v>0.007088390668807835</v>
       </c>
       <c r="K2">
-        <v>26.44019842241372</v>
+        <v>0.8004132739956796</v>
       </c>
       <c r="L2">
-        <v>6.854145141214618</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.1333727626097503</v>
+        <v>0.3615171254321716</v>
       </c>
       <c r="N2">
-        <v>0.1618453857556607</v>
+        <v>0.3791380226662562</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1463,40 +1517,40 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D3" t="s">
         <v>124</v>
       </c>
       <c r="E3" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="F3" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="G3" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="H3" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="I3" t="s">
-        <v>327</v>
+        <v>345</v>
       </c>
       <c r="J3">
-        <v>243.4624302574522</v>
+        <v>0.01232251640789406</v>
       </c>
       <c r="K3">
-        <v>2.909694747402209</v>
+        <v>0.8025559833991999</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.9724875877047525</v>
+        <v>0.3037438045345833</v>
       </c>
       <c r="N3">
-        <v>0.9433241037279841</v>
+        <v>0.4472899825267031</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1507,40 +1561,40 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D4" t="s">
         <v>125</v>
       </c>
       <c r="E4" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="F4" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="G4" t="s">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="H4" t="s">
-        <v>313</v>
+        <v>330</v>
       </c>
       <c r="I4" t="s">
-        <v>326</v>
+        <v>346</v>
       </c>
       <c r="J4">
-        <v>1.847758005398229</v>
+        <v>0.05440530860097094</v>
       </c>
       <c r="K4">
-        <v>0.1725458945301762</v>
+        <v>46.71884124385669</v>
       </c>
       <c r="L4">
-        <v>3.252912352445115E-08</v>
+        <v>13.25461611174186</v>
       </c>
       <c r="M4">
-        <v>0.2966519377070365</v>
+        <v>0.3941862038111757</v>
       </c>
       <c r="N4">
-        <v>0.5284997479767001</v>
+        <v>0.3919681950412934</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1551,40 +1605,40 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D5" t="s">
         <v>126</v>
       </c>
       <c r="E5" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="F5" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
       <c r="G5" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="H5" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="I5" t="s">
-        <v>326</v>
+        <v>345</v>
       </c>
       <c r="J5">
-        <v>39.19107701592267</v>
+        <v>0.0138187111668981</v>
       </c>
       <c r="K5">
-        <v>2.079306198907167</v>
+        <v>0.5660974386054931</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2336352153238898</v>
+        <v>0.1962962777163878</v>
       </c>
       <c r="N5">
-        <v>0.3782000831109639</v>
+        <v>0.166565925391276</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -1595,40 +1649,40 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D6" t="s">
         <v>127</v>
       </c>
       <c r="E6" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="F6" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="G6" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="H6" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="I6" t="s">
-        <v>328</v>
+        <v>347</v>
       </c>
       <c r="J6">
-        <v>3.340861244037789</v>
+        <v>0.5510047221224258</v>
       </c>
       <c r="K6">
-        <v>0.4932924516214494</v>
+        <v>3.017989368649807</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2340572640521071</v>
+        <v>1.10799055316508</v>
       </c>
       <c r="N6">
-        <v>0.297124404736381</v>
+        <v>0.8357912843066215</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1639,40 +1693,40 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D7" t="s">
         <v>128</v>
       </c>
       <c r="E7" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="F7" t="s">
-        <v>282</v>
+        <v>301</v>
       </c>
       <c r="G7" t="s">
-        <v>297</v>
+        <v>316</v>
       </c>
       <c r="H7" t="s">
-        <v>312</v>
+        <v>332</v>
       </c>
       <c r="I7" t="s">
-        <v>326</v>
+        <v>346</v>
       </c>
       <c r="J7">
-        <v>137.4481855205395</v>
+        <v>0.1838005615216013</v>
       </c>
       <c r="K7">
-        <v>3.271457286391888</v>
+        <v>3.11274107955005</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2328475138347781</v>
+        <v>0.3000352648902091</v>
       </c>
       <c r="N7">
-        <v>0.2318840323244138</v>
+        <v>0.1042073260796827</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1683,40 +1737,40 @@
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D8" t="s">
         <v>129</v>
       </c>
       <c r="E8" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="F8" t="s">
-        <v>284</v>
+        <v>302</v>
       </c>
       <c r="G8" t="s">
-        <v>301</v>
+        <v>317</v>
       </c>
       <c r="H8" t="s">
-        <v>316</v>
+        <v>333</v>
       </c>
       <c r="I8" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="J8">
-        <v>121.9414727236737</v>
+        <v>0.01150925265529808</v>
       </c>
       <c r="K8">
-        <v>2.805617960575822</v>
+        <v>0.1661311732230962</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.005506256973293869</v>
       </c>
       <c r="M8">
-        <v>0.6547879971439866</v>
+        <v>0.6312338244448803</v>
       </c>
       <c r="N8">
-        <v>3.014012980132693</v>
+        <v>0.4533978409752116</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -1727,40 +1781,40 @@
         <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D9" t="s">
         <v>130</v>
       </c>
       <c r="E9" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="F9" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="G9" t="s">
-        <v>302</v>
+        <v>318</v>
       </c>
       <c r="H9" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="I9" t="s">
-        <v>328</v>
+        <v>347</v>
       </c>
       <c r="J9">
-        <v>205.5754115531458</v>
+        <v>0.06290306915888816</v>
       </c>
       <c r="K9">
-        <v>0.9387987411777814</v>
+        <v>1.579689613831782</v>
       </c>
       <c r="L9">
-        <v>0.03775809190718022</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.3831125964488087</v>
+        <v>0.4469574522994282</v>
       </c>
       <c r="N9">
-        <v>0.3025299235132081</v>
+        <v>0.9016265574587491</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -1771,40 +1825,40 @@
         <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D10" t="s">
         <v>131</v>
       </c>
       <c r="E10" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="F10" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="G10" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="H10" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="I10" t="s">
-        <v>329</v>
+        <v>346</v>
       </c>
       <c r="J10">
-        <v>11.093462140188</v>
+        <v>0.01298162469140849</v>
       </c>
       <c r="K10">
-        <v>4.005059641288781</v>
+        <v>0.8096366326624982</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.4802614021480599</v>
+        <v>0.4958374342898699</v>
       </c>
       <c r="N10">
-        <v>0.7833791578129093</v>
+        <v>0.3480512579209704</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -1815,40 +1869,40 @@
         <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D11" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="E11" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="F11" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="G11" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="H11" t="s">
-        <v>319</v>
+        <v>334</v>
       </c>
       <c r="I11" t="s">
-        <v>326</v>
+        <v>346</v>
       </c>
       <c r="J11">
-        <v>3.312663367256992</v>
+        <v>0.02713528875457338</v>
       </c>
       <c r="K11">
-        <v>0.3770232164947428</v>
+        <v>0.5934285440111162</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.250444923062689</v>
+        <v>0.2261019898477407</v>
       </c>
       <c r="N11">
-        <v>0.3416517871008921</v>
+        <v>0.2539100118589585</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1859,40 +1913,40 @@
         <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E12" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="F12" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="G12" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="H12" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="I12" t="s">
-        <v>326</v>
+        <v>346</v>
       </c>
       <c r="J12">
-        <v>1.76276194153144</v>
+        <v>0.4496152259416623</v>
       </c>
       <c r="K12">
-        <v>0.4361378665726346</v>
+        <v>3.276845254030119</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.4682791420918004</v>
+        <v>0.4184419992552123</v>
       </c>
       <c r="N12">
-        <v>0.7953395176827321</v>
+        <v>0.2974688420375189</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1906,37 +1960,37 @@
         <v>113</v>
       </c>
       <c r="D13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E13" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="F13" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="G13" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="H13" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="I13" t="s">
-        <v>328</v>
+        <v>347</v>
       </c>
       <c r="J13">
-        <v>4.831442668317661</v>
+        <v>0.3210370335839638</v>
       </c>
       <c r="K13">
-        <v>0.4261983436333872</v>
+        <v>1.964944444010974</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.049445747206897</v>
+        <v>0.6089350748161179</v>
       </c>
       <c r="N13">
-        <v>1.064415883791329</v>
+        <v>0.4654058497095541</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1947,40 +2001,40 @@
         <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E14" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="F14" t="s">
-        <v>282</v>
+        <v>303</v>
       </c>
       <c r="G14" t="s">
-        <v>297</v>
+        <v>318</v>
       </c>
       <c r="H14" t="s">
-        <v>312</v>
+        <v>334</v>
       </c>
       <c r="I14" t="s">
-        <v>328</v>
+        <v>347</v>
       </c>
       <c r="J14">
-        <v>13.4352212743052</v>
+        <v>0.02231083221506509</v>
       </c>
       <c r="K14">
-        <v>0.3176831134460842</v>
+        <v>0.927299925911381</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.4157543483571207</v>
+        <v>1.326809764683466</v>
       </c>
       <c r="N14">
-        <v>0.5899771297415541</v>
+        <v>1.344505917402198</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1991,40 +2045,40 @@
         <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D15" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E15" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="F15" t="s">
-        <v>284</v>
+        <v>303</v>
       </c>
       <c r="G15" t="s">
-        <v>299</v>
+        <v>318</v>
       </c>
       <c r="H15" t="s">
-        <v>314</v>
+        <v>334</v>
       </c>
       <c r="I15" t="s">
-        <v>326</v>
+        <v>347</v>
       </c>
       <c r="J15">
-        <v>40.96744822972471</v>
+        <v>0.1501539895764047</v>
       </c>
       <c r="K15">
-        <v>2.265297868935481</v>
+        <v>1.683257587133</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.5031641005103259</v>
+        <v>0.5523501203293223</v>
       </c>
       <c r="N15">
-        <v>0.8557051658185342</v>
+        <v>0.4497233499557795</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -2035,40 +2089,40 @@
         <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D16" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E16" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="F16" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="G16" t="s">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="H16" t="s">
-        <v>313</v>
+        <v>330</v>
       </c>
       <c r="I16" t="s">
-        <v>330</v>
+        <v>347</v>
       </c>
       <c r="J16">
-        <v>4.472923971298176</v>
+        <v>0.1083243396189455</v>
       </c>
       <c r="K16">
-        <v>0.4802369362161913</v>
+        <v>68.86776331016669</v>
       </c>
       <c r="L16">
-        <v>7.241942655050726E-08</v>
+        <v>16.22915658695703</v>
       </c>
       <c r="M16">
-        <v>0.5763712195545296</v>
+        <v>0.6563149800763486</v>
       </c>
       <c r="N16">
-        <v>1.071218520716392</v>
+        <v>3.779314916775516</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -2079,40 +2133,40 @@
         <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E17" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="F17" t="s">
-        <v>287</v>
+        <v>303</v>
       </c>
       <c r="G17" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="H17" t="s">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="I17" t="s">
-        <v>326</v>
+        <v>346</v>
       </c>
       <c r="J17">
-        <v>5.093962256969738</v>
+        <v>0.3964625462473294</v>
       </c>
       <c r="K17">
-        <v>4.064232880918161</v>
+        <v>1.830358591650404</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.4117907391042208</v>
+        <v>2.093400662038266</v>
       </c>
       <c r="N17">
-        <v>0.5642741855735185</v>
+        <v>0.722288202122132</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -2123,40 +2177,40 @@
         <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D18" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E18" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="F18" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="G18" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="H18" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="I18" t="s">
-        <v>326</v>
+        <v>345</v>
       </c>
       <c r="J18">
-        <v>4.090460244460085</v>
+        <v>0.1361008060582986</v>
       </c>
       <c r="K18">
-        <v>2.787416002623973</v>
+        <v>1.591023920205483</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.3062097887071217</v>
+        <v>0.4173841891193154</v>
       </c>
       <c r="N18">
-        <v>0.2969170343737226</v>
+        <v>0.5836188512783667</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -2167,40 +2221,40 @@
         <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D19" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E19" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="F19" t="s">
-        <v>284</v>
+        <v>304</v>
       </c>
       <c r="G19" t="s">
-        <v>299</v>
+        <v>319</v>
       </c>
       <c r="H19" t="s">
-        <v>314</v>
+        <v>335</v>
       </c>
       <c r="I19" t="s">
-        <v>326</v>
+        <v>345</v>
       </c>
       <c r="J19">
-        <v>105.9442608898221</v>
+        <v>0.01155880725534226</v>
       </c>
       <c r="K19">
-        <v>5.401784531204311</v>
+        <v>14.316432466546</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.2837136975423201</v>
+        <v>0.8771118025517295</v>
       </c>
       <c r="N19">
-        <v>0.08176367648801805</v>
+        <v>0.3083947446158067</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -2211,40 +2265,40 @@
         <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D20" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E20" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="F20" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="G20" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="H20" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="I20" t="s">
-        <v>326</v>
+        <v>345</v>
       </c>
       <c r="J20">
-        <v>2.859138752238349</v>
+        <v>0.3667710973976573</v>
       </c>
       <c r="K20">
-        <v>5.864736148592248</v>
+        <v>1.27128844586942</v>
       </c>
       <c r="L20">
-        <v>0.03221204621011119</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0.2644012985660748</v>
+        <v>0.7080623967151831</v>
       </c>
       <c r="N20">
-        <v>0.2941518932867746</v>
+        <v>0.6363947760800482</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -2255,40 +2309,40 @@
         <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D21" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E21" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="F21" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="G21" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="H21" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="I21" t="s">
-        <v>330</v>
+        <v>347</v>
       </c>
       <c r="J21">
-        <v>32.31569105494835</v>
+        <v>0.03745820616720195</v>
       </c>
       <c r="K21">
-        <v>0.7107383157463867</v>
+        <v>2.718525375811212</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.6608338418687169</v>
+        <v>0.343073102686399</v>
       </c>
       <c r="N21">
-        <v>0.3431960848206821</v>
+        <v>0.3015362568893148</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -2302,37 +2356,37 @@
         <v>113</v>
       </c>
       <c r="D22" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="E22" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="F22" t="s">
-        <v>285</v>
+        <v>305</v>
       </c>
       <c r="G22" t="s">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="H22" t="s">
-        <v>315</v>
+        <v>336</v>
       </c>
       <c r="I22" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
       <c r="J22">
-        <v>9.416530131875133</v>
+        <v>0.001737063644369886</v>
       </c>
       <c r="K22">
-        <v>0.5585112367381734</v>
+        <v>3.937046763988816</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.03652763965465247</v>
       </c>
       <c r="M22">
-        <v>0.2709526221165004</v>
+        <v>0.159578611627061</v>
       </c>
       <c r="N22">
-        <v>0.2999887592130051</v>
+        <v>0.09562974217272634</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -2343,40 +2397,40 @@
         <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D23" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E23" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="F23" t="s">
-        <v>285</v>
+        <v>306</v>
       </c>
       <c r="G23" t="s">
-        <v>300</v>
+        <v>321</v>
       </c>
       <c r="H23" t="s">
-        <v>315</v>
+        <v>337</v>
       </c>
       <c r="I23" t="s">
-        <v>329</v>
+        <v>346</v>
       </c>
       <c r="J23">
-        <v>13.06583053920277</v>
+        <v>0.02045234194966185</v>
       </c>
       <c r="K23">
-        <v>1.979372626575991</v>
+        <v>0.6759830024752755</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.3875018515340292</v>
+        <v>1.016604705237808</v>
       </c>
       <c r="N23">
-        <v>0.2843240838622087</v>
+        <v>0.5704230975917151</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -2387,40 +2441,40 @@
         <v>35</v>
       </c>
       <c r="C24" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D24" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E24" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="F24" t="s">
-        <v>283</v>
+        <v>307</v>
       </c>
       <c r="G24" t="s">
-        <v>298</v>
+        <v>322</v>
       </c>
       <c r="H24" t="s">
-        <v>313</v>
+        <v>338</v>
       </c>
       <c r="I24" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
       <c r="J24">
-        <v>2.885977173023199</v>
+        <v>0.003520654099170596</v>
       </c>
       <c r="K24">
-        <v>0.3507433713749113</v>
+        <v>0.1317685188402313</v>
       </c>
       <c r="L24">
-        <v>0.0008373499349133227</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0.5628370923923005</v>
+        <v>0.4134731564640473</v>
       </c>
       <c r="N24">
-        <v>0.6358818212155055</v>
+        <v>0.9116419857803524</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -2431,40 +2485,40 @@
         <v>36</v>
       </c>
       <c r="C25" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="D25" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E25" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="F25" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="G25" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="H25" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="I25" t="s">
-        <v>326</v>
+        <v>345</v>
       </c>
       <c r="J25">
-        <v>121.8847824301937</v>
+        <v>0.08488156999341571</v>
       </c>
       <c r="K25">
-        <v>0.4086575931541344</v>
+        <v>0.8872624622788169</v>
       </c>
       <c r="L25">
-        <v>0.01981318412785032</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.3385078185671709</v>
+        <v>0.5941593340259352</v>
       </c>
       <c r="N25">
-        <v>0.337201615493211</v>
+        <v>0.5621880872820146</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -2475,40 +2529,40 @@
         <v>37</v>
       </c>
       <c r="C26" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D26" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E26" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="F26" t="s">
-        <v>285</v>
+        <v>305</v>
       </c>
       <c r="G26" t="s">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="H26" t="s">
-        <v>315</v>
+        <v>336</v>
       </c>
       <c r="I26" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
       <c r="J26">
-        <v>22.02295359808387</v>
+        <v>0.001328295653965608</v>
       </c>
       <c r="K26">
-        <v>2.542742407854378</v>
+        <v>3.731050724217358</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>0.03742207685460445</v>
       </c>
       <c r="M26">
-        <v>0.6759358789936524</v>
+        <v>0.3093846456761976</v>
       </c>
       <c r="N26">
-        <v>0.5909729213495791</v>
+        <v>0.234541714143986</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -2522,37 +2576,37 @@
         <v>116</v>
       </c>
       <c r="D27" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E27" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="F27" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="G27" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="H27" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="I27" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="J27">
-        <v>352.8730131950487</v>
+        <v>0.00923764668964022</v>
       </c>
       <c r="K27">
-        <v>1.353941927677351</v>
+        <v>0.4542947426317371</v>
       </c>
       <c r="L27">
-        <v>0.05934594539157573</v>
+        <v>0</v>
       </c>
       <c r="M27">
-        <v>0.4194297447042529</v>
+        <v>0.3404722684678941</v>
       </c>
       <c r="N27">
-        <v>0.2261955446901071</v>
+        <v>0.5848572005591277</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -2563,40 +2617,40 @@
         <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D28" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E28" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="F28" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="G28" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="H28" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="I28" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="J28">
-        <v>0.6982004660813881</v>
+        <v>0.007590386925254352</v>
       </c>
       <c r="K28">
-        <v>0.279593378553734</v>
+        <v>2.963072543651269</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>0.02310851500267614</v>
       </c>
       <c r="M28">
-        <v>0.4519690099725612</v>
+        <v>0.8425303364557999</v>
       </c>
       <c r="N28">
-        <v>0.597753157535308</v>
+        <v>0.6172513202141795</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -2610,37 +2664,37 @@
         <v>118</v>
       </c>
       <c r="D29" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E29" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="F29" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="G29" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="H29" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="I29" t="s">
-        <v>326</v>
+        <v>347</v>
       </c>
       <c r="J29">
-        <v>9.36481209580791</v>
+        <v>0.1548369565180372</v>
       </c>
       <c r="K29">
-        <v>0.9879214707783689</v>
+        <v>3.235325993417455</v>
       </c>
       <c r="L29">
         <v>0</v>
       </c>
       <c r="M29">
-        <v>0.2153648926160198</v>
+        <v>0.3323770578056</v>
       </c>
       <c r="N29">
-        <v>0.1991897195604854</v>
+        <v>0.1142787073394675</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -2651,40 +2705,40 @@
         <v>41</v>
       </c>
       <c r="C30" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D30" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E30" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="F30" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
       <c r="G30" t="s">
-        <v>296</v>
+        <v>313</v>
       </c>
       <c r="H30" t="s">
-        <v>311</v>
+        <v>329</v>
       </c>
       <c r="I30" t="s">
-        <v>326</v>
+        <v>344</v>
       </c>
       <c r="J30">
-        <v>288.7518057357242</v>
+        <v>0.04321277006151162</v>
       </c>
       <c r="K30">
-        <v>119.4111475235532</v>
+        <v>3.021986851786512</v>
       </c>
       <c r="L30">
-        <v>29.00646706361136</v>
+        <v>0</v>
       </c>
       <c r="M30">
-        <v>0.2882262599635237</v>
+        <v>1.212675317443476</v>
       </c>
       <c r="N30">
-        <v>0.2437983084175513</v>
+        <v>0.9170629798778546</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -2695,40 +2749,40 @@
         <v>42</v>
       </c>
       <c r="C31" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D31" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E31" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="F31" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="G31" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="H31" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="I31" t="s">
-        <v>326</v>
+        <v>347</v>
       </c>
       <c r="J31">
-        <v>91.89440839063096</v>
+        <v>0.2537970230140482</v>
       </c>
       <c r="K31">
-        <v>5.036727142213519</v>
+        <v>60.84566778547148</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>14.58212996238605</v>
       </c>
       <c r="M31">
-        <v>0.431219940282549</v>
+        <v>0.466182163264257</v>
       </c>
       <c r="N31">
-        <v>0.2672280443066506</v>
+        <v>0.5013943719607231</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -2739,40 +2793,40 @@
         <v>43</v>
       </c>
       <c r="C32" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D32" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E32" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="F32" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="G32" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="H32" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="I32" t="s">
-        <v>328</v>
+        <v>347</v>
       </c>
       <c r="J32">
-        <v>6.930732232015258</v>
+        <v>0.09418495496678292</v>
       </c>
       <c r="K32">
-        <v>4.89614463228626</v>
+        <v>0.2778376852248826</v>
       </c>
       <c r="L32">
         <v>0</v>
       </c>
       <c r="M32">
-        <v>0.7998695723813187</v>
+        <v>0.7386671000709898</v>
       </c>
       <c r="N32">
-        <v>2.601690536680555</v>
+        <v>1.054088578618292</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -2783,40 +2837,40 @@
         <v>44</v>
       </c>
       <c r="C33" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D33" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E33" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="F33" t="s">
-        <v>285</v>
+        <v>306</v>
       </c>
       <c r="G33" t="s">
-        <v>300</v>
+        <v>321</v>
       </c>
       <c r="H33" t="s">
-        <v>315</v>
+        <v>337</v>
       </c>
       <c r="I33" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="J33">
-        <v>26.48585428908332</v>
+        <v>0.009448900502025001</v>
       </c>
       <c r="K33">
-        <v>1.282899301356782</v>
+        <v>0.4281119155366452</v>
       </c>
       <c r="L33">
         <v>0</v>
       </c>
       <c r="M33">
-        <v>0.2027874331177093</v>
+        <v>0.480730770432299</v>
       </c>
       <c r="N33">
-        <v>0.2418777407571928</v>
+        <v>0.3378240781500461</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -2827,40 +2881,40 @@
         <v>45</v>
       </c>
       <c r="C34" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D34" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E34" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="F34" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="G34" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="H34" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="I34" t="s">
-        <v>326</v>
+        <v>348</v>
       </c>
       <c r="J34">
-        <v>10.91008636996631</v>
+        <v>0.1158100804753922</v>
       </c>
       <c r="K34">
-        <v>0.5741104145828525</v>
+        <v>1.099211275978689</v>
       </c>
       <c r="L34">
         <v>0</v>
       </c>
       <c r="M34">
-        <v>0.2824055921947018</v>
+        <v>1.134541203837925</v>
       </c>
       <c r="N34">
-        <v>0.2320013724689963</v>
+        <v>1.040515716682735</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -2874,37 +2928,37 @@
         <v>118</v>
       </c>
       <c r="D35" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E35" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="F35" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="G35" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="H35" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="I35" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="J35">
-        <v>11.20487321103636</v>
+        <v>0.04984497026426915</v>
       </c>
       <c r="K35">
-        <v>0.9889081726732992</v>
+        <v>25.73135408665636</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>7.115615049689906</v>
       </c>
       <c r="M35">
-        <v>0.5221327564714136</v>
+        <v>0.9487482005099023</v>
       </c>
       <c r="N35">
-        <v>0.298148600503354</v>
+        <v>1.170893948911242</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -2918,37 +2972,37 @@
         <v>121</v>
       </c>
       <c r="D36" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E36" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="F36" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="G36" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="H36" t="s">
-        <v>319</v>
+        <v>334</v>
       </c>
       <c r="I36" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="J36">
-        <v>15.53535224888924</v>
+        <v>0.05321177698928424</v>
       </c>
       <c r="K36">
-        <v>0.4589151598573109</v>
+        <v>2.084154663185587</v>
       </c>
       <c r="L36">
         <v>0</v>
       </c>
       <c r="M36">
-        <v>0.5583603191196916</v>
+        <v>1.088731550066617</v>
       </c>
       <c r="N36">
-        <v>0.8907120024004099</v>
+        <v>1.379774722489357</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -2959,40 +3013,40 @@
         <v>48</v>
       </c>
       <c r="C37" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D37" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="E37" t="s">
-        <v>217</v>
+        <v>245</v>
       </c>
       <c r="F37" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="G37" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="H37" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="I37" t="s">
-        <v>327</v>
+        <v>344</v>
       </c>
       <c r="J37">
-        <v>4.477405743186877</v>
+        <v>0.2960788228778609</v>
       </c>
       <c r="K37">
-        <v>3.363329466076912</v>
+        <v>26.61189813471625</v>
       </c>
       <c r="L37">
-        <v>0</v>
+        <v>6.650789161465088</v>
       </c>
       <c r="M37">
-        <v>0.7638307171665428</v>
+        <v>0.6391859411095852</v>
       </c>
       <c r="N37">
-        <v>0.8085703583139642</v>
+        <v>0.5407850181918986</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -3003,40 +3057,40 @@
         <v>49</v>
       </c>
       <c r="C38" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D38" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E38" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="F38" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="G38" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="H38" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="I38" t="s">
-        <v>329</v>
+        <v>345</v>
       </c>
       <c r="J38">
-        <v>3.100209254804112</v>
+        <v>0.1626399903646788</v>
       </c>
       <c r="K38">
-        <v>0.4952053290841286</v>
+        <v>1.718689459370565</v>
       </c>
       <c r="L38">
         <v>0</v>
       </c>
       <c r="M38">
-        <v>0.4452297531885825</v>
+        <v>0.5308959427318798</v>
       </c>
       <c r="N38">
-        <v>0.6778785839526531</v>
+        <v>0.2694915951960766</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -3050,37 +3104,37 @@
         <v>113</v>
       </c>
       <c r="D39" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E39" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="F39" t="s">
-        <v>288</v>
+        <v>306</v>
       </c>
       <c r="G39" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="H39" t="s">
-        <v>319</v>
+        <v>337</v>
       </c>
       <c r="I39" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="J39">
-        <v>4.113296129685768</v>
+        <v>0.01619029476729872</v>
       </c>
       <c r="K39">
-        <v>0.3533687603899814</v>
+        <v>0.5527226450683344</v>
       </c>
       <c r="L39">
         <v>0</v>
       </c>
       <c r="M39">
-        <v>1.170673844133905</v>
+        <v>0.7048628501481807</v>
       </c>
       <c r="N39">
-        <v>1.088325227786638</v>
+        <v>0.4719677342914779</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -3094,37 +3148,37 @@
         <v>122</v>
       </c>
       <c r="D40" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E40" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="F40" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="G40" t="s">
-        <v>306</v>
+        <v>322</v>
       </c>
       <c r="H40" t="s">
-        <v>321</v>
+        <v>338</v>
       </c>
       <c r="I40" t="s">
-        <v>326</v>
+        <v>345</v>
       </c>
       <c r="J40">
-        <v>6.226556695062412</v>
+        <v>0.002676593655963872</v>
       </c>
       <c r="K40">
-        <v>13.95614368950846</v>
+        <v>0.1027023664522153</v>
       </c>
       <c r="L40">
-        <v>0.05863726232532609</v>
+        <v>0</v>
       </c>
       <c r="M40">
-        <v>0.2796202217588368</v>
+        <v>0.3363317870958069</v>
       </c>
       <c r="N40">
-        <v>0.4069343732769021</v>
+        <v>0.3897179845293581</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -3135,40 +3189,40 @@
         <v>52</v>
       </c>
       <c r="C41" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D41" t="s">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="E41" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="F41" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="G41" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="H41" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
       <c r="I41" t="s">
-        <v>326</v>
+        <v>344</v>
       </c>
       <c r="J41">
-        <v>166.8452093764874</v>
+        <v>0.0376108005745544</v>
       </c>
       <c r="K41">
-        <v>3.120316412932409</v>
+        <v>51.31841145858703</v>
       </c>
       <c r="L41">
-        <v>0</v>
+        <v>12.72316289281337</v>
       </c>
       <c r="M41">
-        <v>0.6934217401658398</v>
+        <v>0.7384481208856465</v>
       </c>
       <c r="N41">
-        <v>0.6465616984799901</v>
+        <v>1.483707121230896</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -3179,40 +3233,40 @@
         <v>53</v>
       </c>
       <c r="C42" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D42" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E42" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="F42" t="s">
-        <v>290</v>
+        <v>308</v>
       </c>
       <c r="G42" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="H42" t="s">
-        <v>321</v>
+        <v>339</v>
       </c>
       <c r="I42" t="s">
-        <v>330</v>
+        <v>347</v>
       </c>
       <c r="J42">
-        <v>1.700497357711154</v>
+        <v>0.005841379097108829</v>
       </c>
       <c r="K42">
-        <v>3.928200989615236</v>
+        <v>0.1883620323282862</v>
       </c>
       <c r="L42">
-        <v>0.01752272863188683</v>
+        <v>3.470420026722931E-08</v>
       </c>
       <c r="M42">
-        <v>0.6659347764708535</v>
+        <v>0.7568208732859946</v>
       </c>
       <c r="N42">
-        <v>0.7441310381996358</v>
+        <v>0.3692310223388747</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -3223,40 +3277,40 @@
         <v>54</v>
       </c>
       <c r="C43" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D43" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="E43" t="s">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="F43" t="s">
-        <v>283</v>
+        <v>306</v>
       </c>
       <c r="G43" t="s">
-        <v>298</v>
+        <v>321</v>
       </c>
       <c r="H43" t="s">
-        <v>313</v>
+        <v>337</v>
       </c>
       <c r="I43" t="s">
-        <v>326</v>
+        <v>345</v>
       </c>
       <c r="J43">
-        <v>3.287569344693813</v>
+        <v>0.03911793400646749</v>
       </c>
       <c r="K43">
-        <v>0.3841849400906333</v>
+        <v>0.7486898757833499</v>
       </c>
       <c r="L43">
-        <v>0.0009036123532891126</v>
+        <v>0</v>
       </c>
       <c r="M43">
-        <v>0.2957887293930886</v>
+        <v>0.4884697934348122</v>
       </c>
       <c r="N43">
-        <v>0.8227793057588513</v>
+        <v>0.5112824470610435</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -3270,37 +3324,37 @@
         <v>117</v>
       </c>
       <c r="D44" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E44" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="F44" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="G44" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="H44" t="s">
-        <v>317</v>
+        <v>332</v>
       </c>
       <c r="I44" t="s">
-        <v>327</v>
+        <v>347</v>
       </c>
       <c r="J44">
-        <v>325.4431811747825</v>
+        <v>0.2409022305753904</v>
       </c>
       <c r="K44">
-        <v>1.499237079405607</v>
+        <v>2.761899278240936</v>
       </c>
       <c r="L44">
-        <v>0.04916308157531204</v>
+        <v>0</v>
       </c>
       <c r="M44">
-        <v>0.8839015722430469</v>
+        <v>1.876361578576039</v>
       </c>
       <c r="N44">
-        <v>1.148773931702323</v>
+        <v>0.7423828772376246</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -3311,40 +3365,40 @@
         <v>56</v>
       </c>
       <c r="C45" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D45" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E45" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="F45" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="G45" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="H45" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="I45" t="s">
-        <v>326</v>
+        <v>345</v>
       </c>
       <c r="J45">
-        <v>1.064529574621365</v>
+        <v>0.09339653037950231</v>
       </c>
       <c r="K45">
-        <v>0.2115709014980394</v>
+        <v>1.446030624131313</v>
       </c>
       <c r="L45">
         <v>0</v>
       </c>
       <c r="M45">
-        <v>0.5059483161808251</v>
+        <v>0.3786228984212611</v>
       </c>
       <c r="N45">
-        <v>0.5689951363429605</v>
+        <v>0.4243344719402874</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -3355,40 +3409,40 @@
         <v>57</v>
       </c>
       <c r="C46" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D46" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E46" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="F46" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="G46" t="s">
-        <v>302</v>
+        <v>324</v>
       </c>
       <c r="H46" t="s">
-        <v>317</v>
+        <v>340</v>
       </c>
       <c r="I46" t="s">
-        <v>326</v>
+        <v>346</v>
       </c>
       <c r="J46">
-        <v>339.4447965799577</v>
+        <v>0.1467175883117578</v>
       </c>
       <c r="K46">
-        <v>1.393348420313472</v>
+        <v>6.490950323449091</v>
       </c>
       <c r="L46">
-        <v>0.05413108554174181</v>
+        <v>0</v>
       </c>
       <c r="M46">
-        <v>0.2819089934061735</v>
+        <v>0.251588816761282</v>
       </c>
       <c r="N46">
-        <v>0.3638085824153013</v>
+        <v>0.371477273546869</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -3399,40 +3453,40 @@
         <v>58</v>
       </c>
       <c r="C47" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D47" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E47" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="F47" t="s">
-        <v>281</v>
+        <v>309</v>
       </c>
       <c r="G47" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
       <c r="H47" t="s">
-        <v>311</v>
+        <v>341</v>
       </c>
       <c r="I47" t="s">
-        <v>326</v>
+        <v>344</v>
       </c>
       <c r="J47">
-        <v>30.60775162746815</v>
+        <v>0.6751552551068927</v>
       </c>
       <c r="K47">
-        <v>77.1314093325682</v>
+        <v>1.697350043686314</v>
       </c>
       <c r="L47">
-        <v>19.48356499424203</v>
+        <v>0.06970126580564626</v>
       </c>
       <c r="M47">
-        <v>0.4815646415405895</v>
+        <v>0.5314518945485387</v>
       </c>
       <c r="N47">
-        <v>0.6685175772157476</v>
+        <v>0.2783365058268544</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -3443,40 +3497,40 @@
         <v>59</v>
       </c>
       <c r="C48" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="D48" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="E48" t="s">
-        <v>223</v>
+        <v>255</v>
       </c>
       <c r="F48" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="G48" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
       <c r="H48" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="I48" t="s">
-        <v>327</v>
+        <v>345</v>
       </c>
       <c r="J48">
-        <v>2.385929618915152</v>
+        <v>0.006744957384199566</v>
       </c>
       <c r="K48">
-        <v>2.246155435807478</v>
+        <v>0.09329624356635292</v>
       </c>
       <c r="L48">
-        <v>0.01874190093730189</v>
+        <v>0.0002467348703243259</v>
       </c>
       <c r="M48">
-        <v>1.436863430389788</v>
+        <v>0.682547408097688</v>
       </c>
       <c r="N48">
-        <v>1.571751680878182</v>
+        <v>0.640840959601865</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -3487,40 +3541,40 @@
         <v>60</v>
       </c>
       <c r="C49" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D49" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E49" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="F49" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="G49" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="H49" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="I49" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="J49">
-        <v>10.36706916784497</v>
+        <v>0.02602784122658299</v>
       </c>
       <c r="K49">
-        <v>1.58395564964406</v>
+        <v>1.7379875908363</v>
       </c>
       <c r="L49">
         <v>0</v>
       </c>
       <c r="M49">
-        <v>1.042488667506676</v>
+        <v>1.057154679775454</v>
       </c>
       <c r="N49">
-        <v>0.8431027570519332</v>
+        <v>0.7354312375823747</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -3531,40 +3585,40 @@
         <v>61</v>
       </c>
       <c r="C50" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D50" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E50" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="F50" t="s">
-        <v>285</v>
+        <v>308</v>
       </c>
       <c r="G50" t="s">
-        <v>300</v>
+        <v>323</v>
       </c>
       <c r="H50" t="s">
-        <v>315</v>
+        <v>339</v>
       </c>
       <c r="I50" t="s">
-        <v>326</v>
+        <v>347</v>
       </c>
       <c r="J50">
-        <v>63.76857641789872</v>
+        <v>0.008615369105314487</v>
       </c>
       <c r="K50">
-        <v>2.785610585914112</v>
+        <v>0.4951814176219286</v>
       </c>
       <c r="L50">
-        <v>0</v>
+        <v>0.0009429942288746244</v>
       </c>
       <c r="M50">
-        <v>0.4213257264704737</v>
+        <v>0.4678695589625195</v>
       </c>
       <c r="N50">
-        <v>0.3559078431976661</v>
+        <v>0.663458730963338</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -3575,40 +3629,40 @@
         <v>62</v>
       </c>
       <c r="C51" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D51" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E51" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="F51" t="s">
-        <v>287</v>
+        <v>306</v>
       </c>
       <c r="G51" t="s">
-        <v>303</v>
+        <v>321</v>
       </c>
       <c r="H51" t="s">
-        <v>318</v>
+        <v>337</v>
       </c>
       <c r="I51" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="J51">
-        <v>6.130858370418319</v>
+        <v>0.01426832648226451</v>
       </c>
       <c r="K51">
-        <v>4.991280306146318</v>
+        <v>0.8348298097674149</v>
       </c>
       <c r="L51">
         <v>0</v>
       </c>
       <c r="M51">
-        <v>2.46540123243121</v>
+        <v>1.096561586593905</v>
       </c>
       <c r="N51">
-        <v>5.291519748623936</v>
+        <v>0.8271666809315515</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -3619,40 +3673,40 @@
         <v>63</v>
       </c>
       <c r="C52" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D52" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E52" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="F52" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="G52" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="H52" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="I52" t="s">
-        <v>327</v>
+        <v>348</v>
       </c>
       <c r="J52">
-        <v>41.35785807187704</v>
+        <v>0.02738060850008601</v>
       </c>
       <c r="K52">
-        <v>1.625067791148074</v>
+        <v>1.627063583120846</v>
       </c>
       <c r="L52">
         <v>0</v>
       </c>
       <c r="M52">
-        <v>0.529962106888391</v>
+        <v>0.8666857733579724</v>
       </c>
       <c r="N52">
-        <v>0.4068954566223289</v>
+        <v>1.028184460520089</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -3663,40 +3717,40 @@
         <v>64</v>
       </c>
       <c r="C53" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D53" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E53" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="F53" t="s">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="G53" t="s">
-        <v>300</v>
+        <v>316</v>
       </c>
       <c r="H53" t="s">
-        <v>315</v>
+        <v>332</v>
       </c>
       <c r="I53" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="J53">
-        <v>19.19002577813279</v>
+        <v>0.2603444851092452</v>
       </c>
       <c r="K53">
-        <v>0.849618566699533</v>
+        <v>1.103357050184314</v>
       </c>
       <c r="L53">
         <v>0</v>
       </c>
       <c r="M53">
-        <v>0.4225958983813867</v>
+        <v>0.8758749558429469</v>
       </c>
       <c r="N53">
-        <v>0.4240091152990623</v>
+        <v>0.7782142713509166</v>
       </c>
     </row>
     <row r="54" spans="1:14">
@@ -3707,40 +3761,40 @@
         <v>65</v>
       </c>
       <c r="C54" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D54" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E54" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="F54" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="G54" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="H54" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="I54" t="s">
-        <v>326</v>
+        <v>345</v>
       </c>
       <c r="J54">
-        <v>2.470413829951433</v>
+        <v>0.1695804509467742</v>
       </c>
       <c r="K54">
-        <v>0.7113206842798728</v>
+        <v>1.553477266994119</v>
       </c>
       <c r="L54">
         <v>0</v>
       </c>
       <c r="M54">
-        <v>0.9496923777040391</v>
+        <v>0.2997909802459942</v>
       </c>
       <c r="N54">
-        <v>0.2825294938823161</v>
+        <v>0.2993278217305762</v>
       </c>
     </row>
     <row r="55" spans="1:14">
@@ -3754,37 +3808,37 @@
         <v>114</v>
       </c>
       <c r="D55" t="s">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c r="E55" t="s">
-        <v>250</v>
+        <v>211</v>
       </c>
       <c r="F55" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="G55" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="H55" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="I55" t="s">
-        <v>327</v>
+        <v>346</v>
       </c>
       <c r="J55">
-        <v>10.81837783536393</v>
+        <v>0.007914995516861728</v>
       </c>
       <c r="K55">
-        <v>0.5528220080705584</v>
+        <v>0.31989033372561</v>
       </c>
       <c r="L55">
         <v>0</v>
       </c>
       <c r="M55">
-        <v>0.7820726154258834</v>
+        <v>0.1636707254981946</v>
       </c>
       <c r="N55">
-        <v>0.7746150367520082</v>
+        <v>0.29317255875525</v>
       </c>
     </row>
     <row r="56" spans="1:14">
@@ -3798,37 +3852,37 @@
         <v>117</v>
       </c>
       <c r="D56" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="E56" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="F56" t="s">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="G56" t="s">
-        <v>300</v>
+        <v>316</v>
       </c>
       <c r="H56" t="s">
-        <v>315</v>
+        <v>332</v>
       </c>
       <c r="I56" t="s">
-        <v>330</v>
+        <v>346</v>
       </c>
       <c r="J56">
-        <v>14.7903544381742</v>
+        <v>0.1489527224505825</v>
       </c>
       <c r="K56">
-        <v>2.724421257124838</v>
+        <v>1.831063749057242</v>
       </c>
       <c r="L56">
         <v>0</v>
       </c>
       <c r="M56">
-        <v>1.627541552672824</v>
+        <v>0.2059248378653454</v>
       </c>
       <c r="N56">
-        <v>1.93530499721256</v>
+        <v>0.1260890988546695</v>
       </c>
     </row>
     <row r="57" spans="1:14">
@@ -3839,40 +3893,40 @@
         <v>68</v>
       </c>
       <c r="C57" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="D57" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E57" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="F57" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="G57" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="H57" t="s">
-        <v>314</v>
+        <v>332</v>
       </c>
       <c r="I57" t="s">
-        <v>329</v>
+        <v>346</v>
       </c>
       <c r="J57">
-        <v>109.0135558396974</v>
+        <v>0.3308116531060419</v>
       </c>
       <c r="K57">
-        <v>7.456279715323734</v>
+        <v>1.283599588962917</v>
       </c>
       <c r="L57">
         <v>0</v>
       </c>
       <c r="M57">
-        <v>2.12456403474934</v>
+        <v>0.4170619756955194</v>
       </c>
       <c r="N57">
-        <v>2.067676931476313</v>
+        <v>0.8059024798074229</v>
       </c>
     </row>
     <row r="58" spans="1:14">
@@ -3883,40 +3937,40 @@
         <v>69</v>
       </c>
       <c r="C58" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D58" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="E58" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="F58" t="s">
-        <v>286</v>
+        <v>308</v>
       </c>
       <c r="G58" t="s">
-        <v>302</v>
+        <v>323</v>
       </c>
       <c r="H58" t="s">
-        <v>317</v>
+        <v>339</v>
       </c>
       <c r="I58" t="s">
-        <v>330</v>
+        <v>348</v>
       </c>
       <c r="J58">
-        <v>416.1213525211012</v>
+        <v>0.01131943680641217</v>
       </c>
       <c r="K58">
-        <v>1.333841896445033</v>
+        <v>0.5884406670997695</v>
       </c>
       <c r="L58">
-        <v>0.06248028448352685</v>
+        <v>0.001938795138679403</v>
       </c>
       <c r="M58">
-        <v>0.5101808574098523</v>
+        <v>0.4409146527583514</v>
       </c>
       <c r="N58">
-        <v>0.5987305373619746</v>
+        <v>0.4458574495827417</v>
       </c>
     </row>
     <row r="59" spans="1:14">
@@ -3927,40 +3981,40 @@
         <v>70</v>
       </c>
       <c r="C59" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D59" t="s">
-        <v>126</v>
+        <v>177</v>
       </c>
       <c r="E59" t="s">
-        <v>205</v>
+        <v>264</v>
       </c>
       <c r="F59" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="G59" t="s">
-        <v>304</v>
+        <v>326</v>
       </c>
       <c r="H59" t="s">
-        <v>319</v>
+        <v>342</v>
       </c>
       <c r="I59" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
       <c r="J59">
-        <v>4.565107081141035</v>
+        <v>0.1369303425622313</v>
       </c>
       <c r="K59">
-        <v>0.3481014837267804</v>
+        <v>6.844097212222935</v>
       </c>
       <c r="L59">
         <v>0</v>
       </c>
       <c r="M59">
-        <v>0.9417713002518682</v>
+        <v>0.5492961429440228</v>
       </c>
       <c r="N59">
-        <v>0.9901667709487766</v>
+        <v>0.228532996848624</v>
       </c>
     </row>
     <row r="60" spans="1:14">
@@ -3971,40 +4025,40 @@
         <v>71</v>
       </c>
       <c r="C60" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D60" t="s">
-        <v>174</v>
+        <v>138</v>
       </c>
       <c r="E60" t="s">
-        <v>253</v>
+        <v>225</v>
       </c>
       <c r="F60" t="s">
-        <v>284</v>
+        <v>307</v>
       </c>
       <c r="G60" t="s">
-        <v>301</v>
+        <v>322</v>
       </c>
       <c r="H60" t="s">
-        <v>316</v>
+        <v>338</v>
       </c>
       <c r="I60" t="s">
-        <v>327</v>
+        <v>345</v>
       </c>
       <c r="J60">
-        <v>42.83370854934434</v>
+        <v>0.008992619244012101</v>
       </c>
       <c r="K60">
-        <v>2.82078526836488</v>
+        <v>0.2493388550812507</v>
       </c>
       <c r="L60">
         <v>0</v>
       </c>
       <c r="M60">
-        <v>0.6485192991723275</v>
+        <v>1.583719133884445</v>
       </c>
       <c r="N60">
-        <v>0.3598072311673486</v>
+        <v>0.6760567692277814</v>
       </c>
     </row>
     <row r="61" spans="1:14">
@@ -4015,40 +4069,40 @@
         <v>72</v>
       </c>
       <c r="C61" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="D61" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E61" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="F61" t="s">
-        <v>287</v>
+        <v>306</v>
       </c>
       <c r="G61" t="s">
-        <v>303</v>
+        <v>321</v>
       </c>
       <c r="H61" t="s">
-        <v>318</v>
+        <v>337</v>
       </c>
       <c r="I61" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="J61">
-        <v>5.681799830640216</v>
+        <v>0.01577095460083045</v>
       </c>
       <c r="K61">
-        <v>4.717068705607064</v>
+        <v>0.3480836917011968</v>
       </c>
       <c r="L61">
         <v>0</v>
       </c>
       <c r="M61">
-        <v>0.9366496735556926</v>
+        <v>0.3705061641990344</v>
       </c>
       <c r="N61">
-        <v>0.5390399314419276</v>
+        <v>0.4736992971983762</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -4059,40 +4113,40 @@
         <v>73</v>
       </c>
       <c r="C62" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D62" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E62" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="F62" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="G62" t="s">
-        <v>297</v>
+        <v>323</v>
       </c>
       <c r="H62" t="s">
-        <v>312</v>
+        <v>339</v>
       </c>
       <c r="I62" t="s">
-        <v>327</v>
+        <v>345</v>
       </c>
       <c r="J62">
-        <v>114.245683814445</v>
+        <v>0.018391598386349</v>
       </c>
       <c r="K62">
-        <v>2.308566917739233</v>
+        <v>0.1740193209046507</v>
       </c>
       <c r="L62">
-        <v>0</v>
+        <v>0.0005074046594833841</v>
       </c>
       <c r="M62">
-        <v>1.011053219973577</v>
+        <v>0.5312959415647639</v>
       </c>
       <c r="N62">
-        <v>0.8652834922712769</v>
+        <v>0.629864989664118</v>
       </c>
     </row>
     <row r="63" spans="1:14">
@@ -4103,40 +4157,40 @@
         <v>74</v>
       </c>
       <c r="C63" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D63" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="E63" t="s">
-        <v>206</v>
+        <v>267</v>
       </c>
       <c r="F63" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
       <c r="G63" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="H63" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="I63" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="J63">
-        <v>43.96007485938097</v>
+        <v>0.09962143305144486</v>
       </c>
       <c r="K63">
-        <v>1.040396789265751</v>
+        <v>3.152489652042753</v>
       </c>
       <c r="L63">
         <v>0</v>
       </c>
       <c r="M63">
-        <v>0.1813753424714264</v>
+        <v>0.8673224238536762</v>
       </c>
       <c r="N63">
-        <v>0.2850806524417952</v>
+        <v>0.4842929698062739</v>
       </c>
     </row>
     <row r="64" spans="1:14">
@@ -4147,40 +4201,40 @@
         <v>75</v>
       </c>
       <c r="C64" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D64" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="E64" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="F64" t="s">
-        <v>281</v>
+        <v>302</v>
       </c>
       <c r="G64" t="s">
-        <v>296</v>
+        <v>317</v>
       </c>
       <c r="H64" t="s">
-        <v>311</v>
+        <v>333</v>
       </c>
       <c r="I64" t="s">
-        <v>327</v>
+        <v>345</v>
       </c>
       <c r="J64">
-        <v>66.5858121336112</v>
+        <v>0.009651889875717228</v>
       </c>
       <c r="K64">
-        <v>32.31936082077618</v>
+        <v>0.5190034795934342</v>
       </c>
       <c r="L64">
-        <v>9.670832172595308</v>
+        <v>0.02049353929033727</v>
       </c>
       <c r="M64">
-        <v>0.9740496182064831</v>
+        <v>0.4530900858357014</v>
       </c>
       <c r="N64">
-        <v>1.261090164771018</v>
+        <v>0.5480736317655692</v>
       </c>
     </row>
     <row r="65" spans="1:14">
@@ -4191,40 +4245,40 @@
         <v>76</v>
       </c>
       <c r="C65" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D65" t="s">
-        <v>132</v>
+        <v>182</v>
       </c>
       <c r="E65" t="s">
-        <v>211</v>
+        <v>269</v>
       </c>
       <c r="F65" t="s">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="G65" t="s">
-        <v>300</v>
+        <v>316</v>
       </c>
       <c r="H65" t="s">
-        <v>315</v>
+        <v>332</v>
       </c>
       <c r="I65" t="s">
-        <v>326</v>
+        <v>344</v>
       </c>
       <c r="J65">
-        <v>24.9918748400349</v>
+        <v>0.4121042387138031</v>
       </c>
       <c r="K65">
-        <v>3.361674641772431</v>
+        <v>2.527467471276101</v>
       </c>
       <c r="L65">
         <v>0</v>
       </c>
       <c r="M65">
-        <v>0.5288042292536259</v>
+        <v>0.5008775163958569</v>
       </c>
       <c r="N65">
-        <v>0.9885799511916048</v>
+        <v>0.3780617059079335</v>
       </c>
     </row>
     <row r="66" spans="1:14">
@@ -4235,40 +4289,40 @@
         <v>77</v>
       </c>
       <c r="C66" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D66" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="E66" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="F66" t="s">
-        <v>291</v>
+        <v>309</v>
       </c>
       <c r="G66" t="s">
-        <v>307</v>
+        <v>325</v>
       </c>
       <c r="H66" t="s">
-        <v>322</v>
+        <v>341</v>
       </c>
       <c r="I66" t="s">
-        <v>329</v>
+        <v>346</v>
       </c>
       <c r="J66">
-        <v>16.19093780024664</v>
+        <v>0.6051336633598899</v>
       </c>
       <c r="K66">
-        <v>1.42898655617089</v>
+        <v>0.4599008535103785</v>
       </c>
       <c r="L66">
-        <v>0</v>
+        <v>0.02462773206642588</v>
       </c>
       <c r="M66">
-        <v>0.8228221493007536</v>
+        <v>0.4553245728179643</v>
       </c>
       <c r="N66">
-        <v>0.6945244977419909</v>
+        <v>0.2401672572490063</v>
       </c>
     </row>
     <row r="67" spans="1:14">
@@ -4279,40 +4333,40 @@
         <v>78</v>
       </c>
       <c r="C67" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D67" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="E67" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="F67" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="G67" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="H67" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="I67" t="s">
-        <v>329</v>
+        <v>345</v>
       </c>
       <c r="J67">
-        <v>9.638617134638306</v>
+        <v>0.1395072470014032</v>
       </c>
       <c r="K67">
-        <v>0.4884234046601386</v>
+        <v>1.109289075028447</v>
       </c>
       <c r="L67">
         <v>0</v>
       </c>
       <c r="M67">
-        <v>1.866994353504732</v>
+        <v>0.4733315434673545</v>
       </c>
       <c r="N67">
-        <v>1.579991633516963</v>
+        <v>0.3895993872942979</v>
       </c>
     </row>
     <row r="68" spans="1:14">
@@ -4323,40 +4377,40 @@
         <v>79</v>
       </c>
       <c r="C68" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D68" t="s">
-        <v>132</v>
+        <v>185</v>
       </c>
       <c r="E68" t="s">
-        <v>211</v>
+        <v>272</v>
       </c>
       <c r="F68" t="s">
-        <v>282</v>
+        <v>303</v>
       </c>
       <c r="G68" t="s">
-        <v>297</v>
+        <v>318</v>
       </c>
       <c r="H68" t="s">
-        <v>312</v>
+        <v>334</v>
       </c>
       <c r="I68" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
       <c r="J68">
-        <v>186.3365559406714</v>
+        <v>0.08442873407371893</v>
       </c>
       <c r="K68">
-        <v>3.718284267414079</v>
+        <v>1.486778064347106</v>
       </c>
       <c r="L68">
         <v>0</v>
       </c>
       <c r="M68">
-        <v>0.601014981706729</v>
+        <v>1.376743959876577</v>
       </c>
       <c r="N68">
-        <v>0.7805768864455888</v>
+        <v>0.3810635196000298</v>
       </c>
     </row>
     <row r="69" spans="1:14">
@@ -4367,40 +4421,40 @@
         <v>80</v>
       </c>
       <c r="C69" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D69" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="E69" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="F69" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="G69" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="H69" t="s">
-        <v>319</v>
+        <v>334</v>
       </c>
       <c r="I69" t="s">
-        <v>326</v>
+        <v>346</v>
       </c>
       <c r="J69">
-        <v>7.917671366387953</v>
+        <v>0.05461580197711555</v>
       </c>
       <c r="K69">
-        <v>0.899635733443548</v>
+        <v>1.454465692630108</v>
       </c>
       <c r="L69">
         <v>0</v>
       </c>
       <c r="M69">
-        <v>0.2437828479394709</v>
+        <v>0.1786010375232381</v>
       </c>
       <c r="N69">
-        <v>0.181522365174567</v>
+        <v>0.2198320389071708</v>
       </c>
     </row>
     <row r="70" spans="1:14">
@@ -4411,40 +4465,40 @@
         <v>81</v>
       </c>
       <c r="C70" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D70" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="E70" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="F70" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="G70" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="H70" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="I70" t="s">
-        <v>326</v>
+        <v>346</v>
       </c>
       <c r="J70">
-        <v>130.0333394251979</v>
+        <v>0.02469632050927989</v>
       </c>
       <c r="K70">
-        <v>2.059532658348252</v>
+        <v>1.485361645627651</v>
       </c>
       <c r="L70">
         <v>0</v>
       </c>
       <c r="M70">
-        <v>0.2194214825476761</v>
+        <v>0.4206000179366692</v>
       </c>
       <c r="N70">
-        <v>0.2339124077326063</v>
+        <v>0.2330616593082466</v>
       </c>
     </row>
     <row r="71" spans="1:14">
@@ -4455,40 +4509,40 @@
         <v>82</v>
       </c>
       <c r="C71" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D71" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="E71" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="F71" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="G71" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="H71" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="I71" t="s">
-        <v>328</v>
+        <v>348</v>
       </c>
       <c r="J71">
-        <v>28.7249924150673</v>
+        <v>0.03041598454645979</v>
       </c>
       <c r="K71">
-        <v>1.565703189841327</v>
+        <v>2.82833376075888</v>
       </c>
       <c r="L71">
         <v>0</v>
       </c>
       <c r="M71">
-        <v>0.5495269514009309</v>
+        <v>0.9240510832049051</v>
       </c>
       <c r="N71">
-        <v>0.491683788419113</v>
+        <v>0.5913422287992598</v>
       </c>
     </row>
     <row r="72" spans="1:14">
@@ -4499,40 +4553,40 @@
         <v>83</v>
       </c>
       <c r="C72" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="D72" t="s">
-        <v>127</v>
+        <v>189</v>
       </c>
       <c r="E72" t="s">
-        <v>206</v>
+        <v>276</v>
       </c>
       <c r="F72" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="G72" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="H72" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="I72" t="s">
-        <v>326</v>
+        <v>346</v>
       </c>
       <c r="J72">
-        <v>3.425231010217469</v>
+        <v>0.4213283572399547</v>
       </c>
       <c r="K72">
-        <v>1.235539228450419</v>
+        <v>2.430450585288263</v>
       </c>
       <c r="L72">
-        <v>0.006981707294480662</v>
+        <v>0</v>
       </c>
       <c r="M72">
-        <v>0.3949801861122831</v>
+        <v>0.2310422932468478</v>
       </c>
       <c r="N72">
-        <v>0.54058777448564</v>
+        <v>0.2783143227954233</v>
       </c>
     </row>
     <row r="73" spans="1:14">
@@ -4543,40 +4597,40 @@
         <v>84</v>
       </c>
       <c r="C73" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D73" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="E73" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="F73" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="G73" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="H73" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="I73" t="s">
-        <v>326</v>
+        <v>347</v>
       </c>
       <c r="J73">
-        <v>1.602987931803513</v>
+        <v>0.02045060281532465</v>
       </c>
       <c r="K73">
-        <v>0.09305085014464878</v>
+        <v>1.90284374093045</v>
       </c>
       <c r="L73">
         <v>0</v>
       </c>
       <c r="M73">
-        <v>0.165360070928924</v>
+        <v>0.4690410176014161</v>
       </c>
       <c r="N73">
-        <v>0.35929721782882</v>
+        <v>0.3872308560163418</v>
       </c>
     </row>
     <row r="74" spans="1:14">
@@ -4587,40 +4641,40 @@
         <v>85</v>
       </c>
       <c r="C74" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D74" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="E74" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="F74" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="G74" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="H74" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="I74" t="s">
-        <v>326</v>
+        <v>345</v>
       </c>
       <c r="J74">
-        <v>4.13472967561211</v>
+        <v>0.0699240055571131</v>
       </c>
       <c r="K74">
-        <v>0.4208127233954366</v>
+        <v>31.58068037972109</v>
       </c>
       <c r="L74">
-        <v>0.01495875773383473</v>
+        <v>7.993245075476973</v>
       </c>
       <c r="M74">
-        <v>0.3736729094585077</v>
+        <v>0.4009489933365415</v>
       </c>
       <c r="N74">
-        <v>0.3394409656193815</v>
+        <v>0.382751280008399</v>
       </c>
     </row>
     <row r="75" spans="1:14">
@@ -4631,40 +4685,40 @@
         <v>86</v>
       </c>
       <c r="C75" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D75" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="E75" t="s">
-        <v>262</v>
+        <v>278</v>
       </c>
       <c r="F75" t="s">
-        <v>287</v>
+        <v>303</v>
       </c>
       <c r="G75" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="H75" t="s">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="I75" t="s">
-        <v>329</v>
+        <v>348</v>
       </c>
       <c r="J75">
-        <v>5.489393394646303</v>
+        <v>0.06819709541641096</v>
       </c>
       <c r="K75">
-        <v>4.721868031719848</v>
+        <v>1.442754073882153</v>
       </c>
       <c r="L75">
         <v>0</v>
       </c>
       <c r="M75">
-        <v>0.4370358933765196</v>
+        <v>0.4273757714459864</v>
       </c>
       <c r="N75">
-        <v>0.4789172206052395</v>
+        <v>1.549826020845554</v>
       </c>
     </row>
     <row r="76" spans="1:14">
@@ -4675,40 +4729,40 @@
         <v>87</v>
       </c>
       <c r="C76" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D76" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="E76" t="s">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="F76" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="G76" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="H76" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="I76" t="s">
-        <v>326</v>
+        <v>346</v>
       </c>
       <c r="J76">
-        <v>11.07150352948592</v>
+        <v>0.120741112446702</v>
       </c>
       <c r="K76">
-        <v>1.957284042182246</v>
+        <v>3.076712304230954</v>
       </c>
       <c r="L76">
         <v>0</v>
       </c>
       <c r="M76">
-        <v>0.2493895617957885</v>
+        <v>0.2233099946602948</v>
       </c>
       <c r="N76">
-        <v>0.2778205315779502</v>
+        <v>0.1527095359907555</v>
       </c>
     </row>
     <row r="77" spans="1:14">
@@ -4719,40 +4773,40 @@
         <v>88</v>
       </c>
       <c r="C77" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D77" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="E77" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="F77" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="G77" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="H77" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="I77" t="s">
-        <v>326</v>
+        <v>346</v>
       </c>
       <c r="J77">
-        <v>2.377271898892184</v>
+        <v>0.01565829391717535</v>
       </c>
       <c r="K77">
-        <v>3.732011797029172</v>
+        <v>0.714531419671792</v>
       </c>
       <c r="L77">
-        <v>0.02866476364129235</v>
+        <v>0</v>
       </c>
       <c r="M77">
-        <v>0.277350957087486</v>
+        <v>0.1538797271906759</v>
       </c>
       <c r="N77">
-        <v>0.2736906532750334</v>
+        <v>0.2425427682635646</v>
       </c>
     </row>
     <row r="78" spans="1:14">
@@ -4763,40 +4817,40 @@
         <v>89</v>
       </c>
       <c r="C78" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D78" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="E78" t="s">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="F78" t="s">
-        <v>282</v>
+        <v>306</v>
       </c>
       <c r="G78" t="s">
-        <v>297</v>
+        <v>321</v>
       </c>
       <c r="H78" t="s">
-        <v>312</v>
+        <v>337</v>
       </c>
       <c r="I78" t="s">
-        <v>326</v>
+        <v>345</v>
       </c>
       <c r="J78">
-        <v>129.6688477452446</v>
+        <v>0.01650275018428222</v>
       </c>
       <c r="K78">
-        <v>2.032276477111731</v>
+        <v>0.1534688011265561</v>
       </c>
       <c r="L78">
         <v>0</v>
       </c>
       <c r="M78">
-        <v>0.5813287670148024</v>
+        <v>0.4082329169861894</v>
       </c>
       <c r="N78">
-        <v>0.744608813397907</v>
+        <v>0.2968663150863007</v>
       </c>
     </row>
     <row r="79" spans="1:14">
@@ -4807,40 +4861,40 @@
         <v>90</v>
       </c>
       <c r="C79" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D79" t="s">
-        <v>186</v>
+        <v>153</v>
       </c>
       <c r="E79" t="s">
-        <v>265</v>
+        <v>240</v>
       </c>
       <c r="F79" t="s">
-        <v>285</v>
+        <v>304</v>
       </c>
       <c r="G79" t="s">
-        <v>300</v>
+        <v>319</v>
       </c>
       <c r="H79" t="s">
-        <v>315</v>
+        <v>335</v>
       </c>
       <c r="I79" t="s">
-        <v>329</v>
+        <v>345</v>
       </c>
       <c r="J79">
-        <v>81.1492182142029</v>
+        <v>0.03323396399573493</v>
       </c>
       <c r="K79">
-        <v>3.333418253353589</v>
+        <v>0.6038191805658087</v>
       </c>
       <c r="L79">
         <v>0</v>
       </c>
       <c r="M79">
-        <v>0.8947565805717592</v>
+        <v>0.2972429697649361</v>
       </c>
       <c r="N79">
-        <v>0.789664826632939</v>
+        <v>0.3716050566199226</v>
       </c>
     </row>
     <row r="80" spans="1:14">
@@ -4851,40 +4905,40 @@
         <v>91</v>
       </c>
       <c r="C80" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D80" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="E80" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="F80" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="G80" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="H80" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="I80" t="s">
-        <v>327</v>
+        <v>346</v>
       </c>
       <c r="J80">
-        <v>7.814388586070265</v>
+        <v>0.7361392452172703</v>
       </c>
       <c r="K80">
-        <v>1.012267721072099</v>
+        <v>3.390783153854857</v>
       </c>
       <c r="L80">
         <v>0</v>
       </c>
       <c r="M80">
-        <v>0.6053522375421549</v>
+        <v>0.8208705315335685</v>
       </c>
       <c r="N80">
-        <v>1.973480650498991</v>
+        <v>0.5361053726542614</v>
       </c>
     </row>
     <row r="81" spans="1:14">
@@ -4895,40 +4949,40 @@
         <v>92</v>
       </c>
       <c r="C81" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D81" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="E81" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="F81" t="s">
-        <v>282</v>
+        <v>301</v>
       </c>
       <c r="G81" t="s">
-        <v>297</v>
+        <v>316</v>
       </c>
       <c r="H81" t="s">
-        <v>312</v>
+        <v>332</v>
       </c>
       <c r="I81" t="s">
-        <v>326</v>
+        <v>346</v>
       </c>
       <c r="J81">
-        <v>106.2311863821813</v>
+        <v>0.1371042871390168</v>
       </c>
       <c r="K81">
-        <v>2.037481586110269</v>
+        <v>5.197830269144252</v>
       </c>
       <c r="L81">
         <v>0</v>
       </c>
       <c r="M81">
-        <v>0.3048643115658148</v>
+        <v>0.1968456595574794</v>
       </c>
       <c r="N81">
-        <v>0.3122272896196231</v>
+        <v>0.2060947846948392</v>
       </c>
     </row>
     <row r="82" spans="1:14">
@@ -4939,40 +4993,40 @@
         <v>93</v>
       </c>
       <c r="C82" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D82" t="s">
-        <v>161</v>
+        <v>196</v>
       </c>
       <c r="E82" t="s">
-        <v>240</v>
+        <v>283</v>
       </c>
       <c r="F82" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="G82" t="s">
-        <v>298</v>
+        <v>318</v>
       </c>
       <c r="H82" t="s">
-        <v>313</v>
+        <v>334</v>
       </c>
       <c r="I82" t="s">
-        <v>327</v>
+        <v>348</v>
       </c>
       <c r="J82">
-        <v>5.543827568395256</v>
+        <v>0.07179882614776073</v>
       </c>
       <c r="K82">
-        <v>0.3662851933858711</v>
+        <v>1.791804616063503</v>
       </c>
       <c r="L82">
-        <v>7.008894491133918E-08</v>
+        <v>0</v>
       </c>
       <c r="M82">
-        <v>0.991663394488523</v>
+        <v>0.4366280825023253</v>
       </c>
       <c r="N82">
-        <v>1.107467535679972</v>
+        <v>0.748026864802404</v>
       </c>
     </row>
     <row r="83" spans="1:14">
@@ -4983,40 +5037,40 @@
         <v>94</v>
       </c>
       <c r="C83" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D83" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="E83" t="s">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="F83" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="G83" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="H83" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="I83" t="s">
-        <v>327</v>
+        <v>346</v>
       </c>
       <c r="J83">
-        <v>12.07938047351875</v>
+        <v>0.0194466784075878</v>
       </c>
       <c r="K83">
-        <v>0.5535016553783856</v>
+        <v>1.467639071112275</v>
       </c>
       <c r="L83">
         <v>0</v>
       </c>
       <c r="M83">
-        <v>0.5945221059285063</v>
+        <v>0.3228081669864183</v>
       </c>
       <c r="N83">
-        <v>0.6383292516518088</v>
+        <v>0.3886880993781606</v>
       </c>
     </row>
     <row r="84" spans="1:14">
@@ -5027,40 +5081,40 @@
         <v>95</v>
       </c>
       <c r="C84" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D84" t="s">
-        <v>171</v>
+        <v>130</v>
       </c>
       <c r="E84" t="s">
-        <v>250</v>
+        <v>217</v>
       </c>
       <c r="F84" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="G84" t="s">
-        <v>296</v>
+        <v>327</v>
       </c>
       <c r="H84" t="s">
-        <v>311</v>
+        <v>343</v>
       </c>
       <c r="I84" t="s">
-        <v>326</v>
+        <v>346</v>
       </c>
       <c r="J84">
-        <v>31.99855245427065</v>
+        <v>0.02893048012276425</v>
       </c>
       <c r="K84">
-        <v>11.58653329935383</v>
+        <v>7.948986172099993</v>
       </c>
       <c r="L84">
-        <v>3.183883432922177</v>
+        <v>0.03215639344994973</v>
       </c>
       <c r="M84">
-        <v>0.1897174623680267</v>
+        <v>0.2472930490917573</v>
       </c>
       <c r="N84">
-        <v>0.2107646026623551</v>
+        <v>0.5394258140978496</v>
       </c>
     </row>
     <row r="85" spans="1:14">
@@ -5071,40 +5125,40 @@
         <v>96</v>
       </c>
       <c r="C85" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D85" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="E85" t="s">
-        <v>269</v>
+        <v>285</v>
       </c>
       <c r="F85" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="G85" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="H85" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="I85" t="s">
-        <v>330</v>
+        <v>346</v>
       </c>
       <c r="J85">
-        <v>76.78332525253265</v>
+        <v>0.09512317835769225</v>
       </c>
       <c r="K85">
-        <v>1.712970478975963</v>
+        <v>1.714955023975733</v>
       </c>
       <c r="L85">
         <v>0</v>
       </c>
       <c r="M85">
-        <v>1.239940000576609</v>
+        <v>0.2537827694234514</v>
       </c>
       <c r="N85">
-        <v>1.805085372741735</v>
+        <v>0.2152035404824322</v>
       </c>
     </row>
     <row r="86" spans="1:14">
@@ -5118,37 +5172,37 @@
         <v>113</v>
       </c>
       <c r="D86" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="E86" t="s">
-        <v>270</v>
+        <v>286</v>
       </c>
       <c r="F86" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="G86" t="s">
-        <v>300</v>
+        <v>326</v>
       </c>
       <c r="H86" t="s">
-        <v>315</v>
+        <v>342</v>
       </c>
       <c r="I86" t="s">
-        <v>328</v>
+        <v>348</v>
       </c>
       <c r="J86">
-        <v>4.875369654477809</v>
+        <v>0.3405592874554133</v>
       </c>
       <c r="K86">
-        <v>0.840647211452671</v>
+        <v>5.754371845715677</v>
       </c>
       <c r="L86">
         <v>0</v>
       </c>
       <c r="M86">
-        <v>0.2504363738339313</v>
+        <v>0.8664301763110009</v>
       </c>
       <c r="N86">
-        <v>0.4571658701487685</v>
+        <v>0.4168117249959987</v>
       </c>
     </row>
     <row r="87" spans="1:14">
@@ -5159,40 +5213,40 @@
         <v>98</v>
       </c>
       <c r="C87" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D87" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="E87" t="s">
-        <v>271</v>
+        <v>287</v>
       </c>
       <c r="F87" t="s">
-        <v>285</v>
+        <v>308</v>
       </c>
       <c r="G87" t="s">
-        <v>300</v>
+        <v>323</v>
       </c>
       <c r="H87" t="s">
-        <v>315</v>
+        <v>339</v>
       </c>
       <c r="I87" t="s">
-        <v>327</v>
+        <v>346</v>
       </c>
       <c r="J87">
-        <v>55.60762735644703</v>
+        <v>0.01165842358427621</v>
       </c>
       <c r="K87">
-        <v>1.953604174853001</v>
+        <v>0.6838724130943653</v>
       </c>
       <c r="L87">
-        <v>0</v>
+        <v>0.001351493071334845</v>
       </c>
       <c r="M87">
-        <v>0.7336534207271709</v>
+        <v>0.2571922720132613</v>
       </c>
       <c r="N87">
-        <v>0.8899482735190414</v>
+        <v>0.2423336836183781</v>
       </c>
     </row>
     <row r="88" spans="1:14">
@@ -5203,40 +5257,40 @@
         <v>99</v>
       </c>
       <c r="C88" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D88" t="s">
-        <v>136</v>
+        <v>201</v>
       </c>
       <c r="E88" t="s">
-        <v>215</v>
+        <v>288</v>
       </c>
       <c r="F88" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="G88" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="H88" t="s">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="I88" t="s">
-        <v>326</v>
+        <v>347</v>
       </c>
       <c r="J88">
-        <v>5.003216324739387</v>
+        <v>0.04094964955822986</v>
       </c>
       <c r="K88">
-        <v>0.4700621871808701</v>
+        <v>0.7938757748651137</v>
       </c>
       <c r="L88">
-        <v>0.001051154913755291</v>
+        <v>0</v>
       </c>
       <c r="M88">
-        <v>0.5542142132808805</v>
+        <v>0.4589318339024736</v>
       </c>
       <c r="N88">
-        <v>0.7471757596018599</v>
+        <v>0.5052441068550776</v>
       </c>
     </row>
     <row r="89" spans="1:14">
@@ -5247,40 +5301,40 @@
         <v>100</v>
       </c>
       <c r="C89" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D89" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="E89" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="F89" t="s">
-        <v>283</v>
+        <v>311</v>
       </c>
       <c r="G89" t="s">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="H89" t="s">
-        <v>313</v>
+        <v>330</v>
       </c>
       <c r="I89" t="s">
-        <v>327</v>
+        <v>346</v>
       </c>
       <c r="J89">
-        <v>1.357168089380321</v>
+        <v>0.004667506353824821</v>
       </c>
       <c r="K89">
-        <v>0.1718439019433163</v>
+        <v>0.1657342832972697</v>
       </c>
       <c r="L89">
-        <v>0.0004081918854330701</v>
+        <v>0.004020074944471859</v>
       </c>
       <c r="M89">
-        <v>0.577611445081752</v>
+        <v>0.2714066392931554</v>
       </c>
       <c r="N89">
-        <v>0.5776236603808594</v>
+        <v>0.2786063536375469</v>
       </c>
     </row>
     <row r="90" spans="1:14">
@@ -5291,40 +5345,40 @@
         <v>101</v>
       </c>
       <c r="C90" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D90" t="s">
-        <v>145</v>
+        <v>203</v>
       </c>
       <c r="E90" t="s">
-        <v>224</v>
+        <v>290</v>
       </c>
       <c r="F90" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="G90" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="H90" t="s">
-        <v>318</v>
+        <v>335</v>
       </c>
       <c r="I90" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="J90">
-        <v>10.19221101380253</v>
+        <v>0.009083977436323313</v>
       </c>
       <c r="K90">
-        <v>6.768504254183699</v>
+        <v>8.80098913175248</v>
       </c>
       <c r="L90">
         <v>0</v>
       </c>
       <c r="M90">
-        <v>0.7072464506530921</v>
+        <v>0.611048506842033</v>
       </c>
       <c r="N90">
-        <v>0.7483955795742678</v>
+        <v>0.4222411820431832</v>
       </c>
     </row>
     <row r="91" spans="1:14">
@@ -5335,40 +5389,40 @@
         <v>102</v>
       </c>
       <c r="C91" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D91" t="s">
-        <v>134</v>
+        <v>186</v>
       </c>
       <c r="E91" t="s">
-        <v>213</v>
+        <v>273</v>
       </c>
       <c r="F91" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="G91" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="H91" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="I91" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
       <c r="J91">
-        <v>0.3603712457474547</v>
+        <v>0.4013913398492608</v>
       </c>
       <c r="K91">
-        <v>0.1537009128676035</v>
+        <v>4.849594922917032</v>
       </c>
       <c r="L91">
         <v>0</v>
       </c>
       <c r="M91">
-        <v>0.6056467303187222</v>
+        <v>0.1639071875070509</v>
       </c>
       <c r="N91">
-        <v>0.6233784627640769</v>
+        <v>0.1859259010008151</v>
       </c>
     </row>
     <row r="92" spans="1:14">
@@ -5379,40 +5433,40 @@
         <v>103</v>
       </c>
       <c r="C92" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D92" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="E92" t="s">
-        <v>273</v>
+        <v>291</v>
       </c>
       <c r="F92" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="G92" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="H92" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="I92" t="s">
-        <v>326</v>
+        <v>344</v>
       </c>
       <c r="J92">
-        <v>124.026958746905</v>
+        <v>0.1046841548009273</v>
       </c>
       <c r="K92">
-        <v>0.5841865594893367</v>
+        <v>6.494913368414592</v>
       </c>
       <c r="L92">
-        <v>0.0238377570640221</v>
+        <v>0</v>
       </c>
       <c r="M92">
-        <v>0.2767830581172036</v>
+        <v>0.5256377995954137</v>
       </c>
       <c r="N92">
-        <v>0.2601163807162721</v>
+        <v>0.5274454667823963</v>
       </c>
     </row>
     <row r="93" spans="1:14">
@@ -5423,40 +5477,40 @@
         <v>104</v>
       </c>
       <c r="C93" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D93" t="s">
-        <v>131</v>
+        <v>181</v>
       </c>
       <c r="E93" t="s">
-        <v>210</v>
+        <v>268</v>
       </c>
       <c r="F93" t="s">
-        <v>282</v>
+        <v>300</v>
       </c>
       <c r="G93" t="s">
-        <v>297</v>
+        <v>315</v>
       </c>
       <c r="H93" t="s">
-        <v>312</v>
+        <v>331</v>
       </c>
       <c r="I93" t="s">
-        <v>326</v>
+        <v>346</v>
       </c>
       <c r="J93">
-        <v>94.79192405968497</v>
+        <v>0.4665473338077213</v>
       </c>
       <c r="K93">
-        <v>1.899729194519022</v>
+        <v>2.4135942566343</v>
       </c>
       <c r="L93">
         <v>0</v>
       </c>
       <c r="M93">
-        <v>0.2511817372285477</v>
+        <v>0.2646566682999009</v>
       </c>
       <c r="N93">
-        <v>0.3404036730148688</v>
+        <v>0.3052045402795329</v>
       </c>
     </row>
     <row r="94" spans="1:14">
@@ -5467,40 +5521,40 @@
         <v>105</v>
       </c>
       <c r="C94" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D94" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="E94" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F94" t="s">
-        <v>282</v>
+        <v>303</v>
       </c>
       <c r="G94" t="s">
-        <v>297</v>
+        <v>318</v>
       </c>
       <c r="H94" t="s">
-        <v>312</v>
+        <v>334</v>
       </c>
       <c r="I94" t="s">
-        <v>327</v>
+        <v>344</v>
       </c>
       <c r="J94">
-        <v>79.78508933141737</v>
+        <v>0.06904652393814391</v>
       </c>
       <c r="K94">
-        <v>1.907977193685043</v>
+        <v>0.7032810606783695</v>
       </c>
       <c r="L94">
         <v>0</v>
       </c>
       <c r="M94">
-        <v>0.850514317272935</v>
+        <v>1.064795235666234</v>
       </c>
       <c r="N94">
-        <v>0.4619290053576516</v>
+        <v>0.7963661309005901</v>
       </c>
     </row>
     <row r="95" spans="1:14">
@@ -5511,40 +5565,40 @@
         <v>106</v>
       </c>
       <c r="C95" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D95" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="E95" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="F95" t="s">
-        <v>284</v>
+        <v>310</v>
       </c>
       <c r="G95" t="s">
-        <v>299</v>
+        <v>327</v>
       </c>
       <c r="H95" t="s">
-        <v>314</v>
+        <v>343</v>
       </c>
       <c r="I95" t="s">
-        <v>330</v>
+        <v>348</v>
       </c>
       <c r="J95">
-        <v>25.73917301113431</v>
+        <v>0.004404945956273137</v>
       </c>
       <c r="K95">
-        <v>1.321240590379082</v>
+        <v>0.8293978911781826</v>
       </c>
       <c r="L95">
-        <v>0</v>
+        <v>0.003664265804157182</v>
       </c>
       <c r="M95">
-        <v>0.6088420640246004</v>
+        <v>1.189297999860574</v>
       </c>
       <c r="N95">
-        <v>0.459655839324589</v>
+        <v>1.077412871051701</v>
       </c>
     </row>
     <row r="96" spans="1:14">
@@ -5555,40 +5609,40 @@
         <v>107</v>
       </c>
       <c r="C96" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D96" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="E96" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="F96" t="s">
-        <v>282</v>
+        <v>301</v>
       </c>
       <c r="G96" t="s">
-        <v>297</v>
+        <v>316</v>
       </c>
       <c r="H96" t="s">
-        <v>312</v>
+        <v>332</v>
       </c>
       <c r="I96" t="s">
-        <v>327</v>
+        <v>346</v>
       </c>
       <c r="J96">
-        <v>149.726288910751</v>
+        <v>0.6403198466456659</v>
       </c>
       <c r="K96">
-        <v>3.222972648897513</v>
+        <v>1.569839559812301</v>
       </c>
       <c r="L96">
         <v>0</v>
       </c>
       <c r="M96">
-        <v>0.8406634347665987</v>
+        <v>0.7135632645937356</v>
       </c>
       <c r="N96">
-        <v>0.9147507402878151</v>
+        <v>0.8355160242450836</v>
       </c>
     </row>
     <row r="97" spans="1:14">
@@ -5599,40 +5653,40 @@
         <v>108</v>
       </c>
       <c r="C97" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D97" t="s">
-        <v>198</v>
+        <v>124</v>
       </c>
       <c r="E97" t="s">
-        <v>277</v>
+        <v>211</v>
       </c>
       <c r="F97" t="s">
-        <v>288</v>
+        <v>307</v>
       </c>
       <c r="G97" t="s">
-        <v>304</v>
+        <v>322</v>
       </c>
       <c r="H97" t="s">
-        <v>319</v>
+        <v>338</v>
       </c>
       <c r="I97" t="s">
-        <v>326</v>
+        <v>346</v>
       </c>
       <c r="J97">
-        <v>10.08562968958526</v>
+        <v>0.003684820513128785</v>
       </c>
       <c r="K97">
-        <v>1.070750697427004</v>
+        <v>0.1137400825863665</v>
       </c>
       <c r="L97">
         <v>0</v>
       </c>
       <c r="M97">
-        <v>0.5809306129664817</v>
+        <v>0.1764255328489679</v>
       </c>
       <c r="N97">
-        <v>0.3649908240534085</v>
+        <v>0.252674727946778</v>
       </c>
     </row>
     <row r="98" spans="1:14">
@@ -5643,40 +5697,40 @@
         <v>109</v>
       </c>
       <c r="C98" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D98" t="s">
-        <v>174</v>
+        <v>207</v>
       </c>
       <c r="E98" t="s">
-        <v>253</v>
+        <v>294</v>
       </c>
       <c r="F98" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="G98" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="H98" t="s">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="I98" t="s">
-        <v>326</v>
+        <v>348</v>
       </c>
       <c r="J98">
-        <v>2.171870885994144</v>
+        <v>0.05862518631990415</v>
       </c>
       <c r="K98">
-        <v>0.2177671408115986</v>
+        <v>1.149056110056274</v>
       </c>
       <c r="L98">
-        <v>0.0005459325155945527</v>
+        <v>0</v>
       </c>
       <c r="M98">
-        <v>0.3158816699934768</v>
+        <v>0.2425866391976574</v>
       </c>
       <c r="N98">
-        <v>0.1829733698283423</v>
+        <v>0.218565740988247</v>
       </c>
     </row>
     <row r="99" spans="1:14">
@@ -5687,40 +5741,40 @@
         <v>110</v>
       </c>
       <c r="C99" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D99" t="s">
-        <v>199</v>
+        <v>138</v>
       </c>
       <c r="E99" t="s">
-        <v>278</v>
+        <v>225</v>
       </c>
       <c r="F99" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="G99" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="H99" t="s">
-        <v>311</v>
+        <v>328</v>
       </c>
       <c r="I99" t="s">
-        <v>330</v>
+        <v>346</v>
       </c>
       <c r="J99">
-        <v>22.46459057018784</v>
+        <v>0.02712036350448973</v>
       </c>
       <c r="K99">
-        <v>48.70242726564921</v>
+        <v>0.9091032644231967</v>
       </c>
       <c r="L99">
-        <v>13.75900227413521</v>
+        <v>0</v>
       </c>
       <c r="M99">
-        <v>0.441252791886267</v>
+        <v>2.195845061664438</v>
       </c>
       <c r="N99">
-        <v>0.3649503211601468</v>
+        <v>0.7471143779831838</v>
       </c>
     </row>
     <row r="100" spans="1:14">
@@ -5731,40 +5785,40 @@
         <v>111</v>
       </c>
       <c r="C100" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D100" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="E100" t="s">
-        <v>279</v>
+        <v>295</v>
       </c>
       <c r="F100" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="G100" t="s">
-        <v>298</v>
+        <v>318</v>
       </c>
       <c r="H100" t="s">
-        <v>313</v>
+        <v>334</v>
       </c>
       <c r="I100" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
       <c r="J100">
-        <v>13.12255878335111</v>
+        <v>0.119775748032167</v>
       </c>
       <c r="K100">
-        <v>0.5207755448368517</v>
+        <v>1.705252657999453</v>
       </c>
       <c r="L100">
-        <v>0.001377244593720205</v>
+        <v>0</v>
       </c>
       <c r="M100">
-        <v>1.012858094706501</v>
+        <v>0.3527306312967053</v>
       </c>
       <c r="N100">
-        <v>2.126758413441793</v>
+        <v>0.246205204951532</v>
       </c>
     </row>
     <row r="101" spans="1:14">
@@ -5775,40 +5829,40 @@
         <v>112</v>
       </c>
       <c r="C101" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D101" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="E101" t="s">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="F101" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="G101" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="H101" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="I101" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="J101">
-        <v>0.828765654354478</v>
+        <v>0.05580511711831778</v>
       </c>
       <c r="K101">
-        <v>2.12561005900267</v>
+        <v>0.5339393379352044</v>
       </c>
       <c r="L101">
-        <v>0.02237224109471045</v>
+        <v>0</v>
       </c>
       <c r="M101">
-        <v>0.7194184278528957</v>
+        <v>0.9180773061465087</v>
       </c>
       <c r="N101">
-        <v>0.6311447083499434</v>
+        <v>1.140429908631956</v>
       </c>
     </row>
   </sheetData>
